--- a/FG_PrjDoc.xlsx
+++ b/FG_PrjDoc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\FG9322\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\FG9326M8GTEI4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549654BD-9F07-4A6F-9D4D-6E3FB2D0C41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BB06B9-2EFE-4949-A0C0-BFBA8FFFF009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="847" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="847" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Func" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <sheet name="ADCMUX" sheetId="5" r:id="rId8"/>
     <sheet name="Connector Mapping" sheetId="11" r:id="rId9"/>
     <sheet name="L1-L8" sheetId="12" r:id="rId10"/>
-    <sheet name="Func TBA" sheetId="10" r:id="rId11"/>
+    <sheet name="VehStateMachine" sheetId="16" r:id="rId11"/>
+    <sheet name="VO Data" sheetId="14" r:id="rId12"/>
+    <sheet name="Func TBA" sheetId="10" r:id="rId13"/>
+    <sheet name="Func DEC" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="579">
   <si>
     <t>Central Body Module</t>
   </si>
@@ -1493,6 +1496,341 @@
   </si>
   <si>
     <t>Update FBL according to new memory layout.</t>
+  </si>
+  <si>
+    <t>System re-programming</t>
+  </si>
+  <si>
+    <t>System enconding</t>
+  </si>
+  <si>
+    <t>VIN storing</t>
+  </si>
+  <si>
+    <t>Diagnosis control master</t>
+  </si>
+  <si>
+    <t>QC mode</t>
+  </si>
+  <si>
+    <t>CAN router</t>
+  </si>
+  <si>
+    <t>CAN master</t>
+  </si>
+  <si>
+    <t>Partial network control</t>
+  </si>
+  <si>
+    <t>Chassis data storing</t>
+  </si>
+  <si>
+    <t>Upholstery and paint storing</t>
+  </si>
+  <si>
+    <t>Vehicle order storing</t>
+  </si>
+  <si>
+    <t>Build date storing</t>
+  </si>
+  <si>
+    <t>SW Module</t>
+  </si>
+  <si>
+    <t>Vehicle state manager</t>
+  </si>
+  <si>
+    <t>Software-hardware version</t>
+  </si>
+  <si>
+    <t>System back-up</t>
+  </si>
+  <si>
+    <t>Supply state manager</t>
+  </si>
+  <si>
+    <t>In-Vehicle Error Notification</t>
+  </si>
+  <si>
+    <t>Electric powertrain motor control</t>
+  </si>
+  <si>
+    <t>Electric power steering motor control</t>
+  </si>
+  <si>
+    <t>Collision detection</t>
+  </si>
+  <si>
+    <t>Electric fan for EPS cooling</t>
+  </si>
+  <si>
+    <t>Temperature sensor for EPS</t>
+  </si>
+  <si>
+    <t>Speed sensor processing</t>
+  </si>
+  <si>
+    <t>RPM calculation of electric motor</t>
+  </si>
+  <si>
+    <t>Diagnostic messages buffer</t>
+  </si>
+  <si>
+    <t>CAN messages buffer</t>
+  </si>
+  <si>
+    <t>MCU safety measures</t>
+  </si>
+  <si>
+    <t>Drive-cycle control</t>
+  </si>
+  <si>
+    <t>Module names storing</t>
+  </si>
+  <si>
+    <t>CAN ISO-TP</t>
+  </si>
+  <si>
+    <t>Analog measurements for sensors</t>
+  </si>
+  <si>
+    <t>PWM signal generation for motors</t>
+  </si>
+  <si>
+    <t>E2E protection on ASIL messages</t>
+  </si>
+  <si>
+    <t>Multicore</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>DTC handling</t>
+  </si>
+  <si>
+    <t>NVM handling</t>
+  </si>
+  <si>
+    <t>CPU load calculation</t>
+  </si>
+  <si>
+    <t>5 series</t>
+  </si>
+  <si>
+    <t>3 series</t>
+  </si>
+  <si>
+    <t>4 series</t>
+  </si>
+  <si>
+    <t>VIN</t>
+  </si>
+  <si>
+    <t>WBADT534X2CE93000</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>WBAVB73558P102233</t>
+  </si>
+  <si>
+    <t>WBA3T3C50FP737967</t>
+  </si>
+  <si>
+    <t>Chassis number</t>
+  </si>
+  <si>
+    <t>G30</t>
+  </si>
+  <si>
+    <t>G26</t>
+  </si>
+  <si>
+    <t>8 series</t>
+  </si>
+  <si>
+    <t>F93</t>
+  </si>
+  <si>
+    <t>E46</t>
+  </si>
+  <si>
+    <t>Upholstery / paint</t>
+  </si>
+  <si>
+    <t>black / M8GTE</t>
+  </si>
+  <si>
+    <t>black / black sapphire</t>
+  </si>
+  <si>
+    <t>white / beige</t>
+  </si>
+  <si>
+    <t>grey / black sapphire</t>
+  </si>
+  <si>
+    <t>Software version</t>
+  </si>
+  <si>
+    <t>Hardware version</t>
+  </si>
+  <si>
+    <t>Calibration version</t>
+  </si>
+  <si>
+    <t>Coding version</t>
+  </si>
+  <si>
+    <t>Option list</t>
+  </si>
+  <si>
+    <t>Steer-by-wire
+Brake-by-wire
+Bluetooth control
+Remote ventilation
+Automatic climate control
+Windshield wiper normal speed
+Digital Cluster
+Reverse camera
+Collision assist
+Central locking
+Automatic lights
+Automatic wipers
+Automatic transmission / electric drivetrain
+Remote start
+5V electric drivetrain</t>
+  </si>
+  <si>
+    <t>Build date</t>
+  </si>
+  <si>
+    <t>01.05.2025</t>
+  </si>
+  <si>
+    <t>Module names</t>
+  </si>
+  <si>
+    <t>Central Body Module 1 - CBM1
+Digital Main Unit 1 - DMU1
+Power Distribution Module 1 - PDM1
+Drive Electronic Controller 1 - DEC1</t>
+  </si>
+  <si>
+    <t>1.1.1
+1.1.1
+1.1.1
+1.1.1</t>
+  </si>
+  <si>
+    <t>WBAEG2311MC291143</t>
+  </si>
+  <si>
+    <t>Vehicle states</t>
+  </si>
+  <si>
+    <t>Pre-conditions</t>
+  </si>
+  <si>
+    <t>Parked ignition off</t>
+  </si>
+  <si>
+    <t>Parked ignition on</t>
+  </si>
+  <si>
+    <t>Standing</t>
+  </si>
+  <si>
+    <t>Pre-drive-check</t>
+  </si>
+  <si>
+    <t>Driving</t>
+  </si>
+  <si>
+    <t>Post-drive-check</t>
+  </si>
+  <si>
+    <t>Vehicle error</t>
+  </si>
+  <si>
+    <t>Gearbox in park, central locking activated.</t>
+  </si>
+  <si>
+    <t>Gearbox in park, central locking de-activated.</t>
+  </si>
+  <si>
+    <t>Gearbox in drive or in park, ignition switched to position two.</t>
+  </si>
+  <si>
+    <t>Gearbox in drive and vehicle speed greater than zero.</t>
+  </si>
+  <si>
+    <t>In-Vehicle error preventing safe driving.</t>
+  </si>
+  <si>
+    <t>Additional state for checks</t>
+  </si>
+  <si>
+    <t>FBL</t>
+  </si>
+  <si>
+    <t>EncCal</t>
+  </si>
+  <si>
+    <t>ConfigMgr</t>
+  </si>
+  <si>
+    <t>VehState</t>
+  </si>
+  <si>
+    <t>EnergyManagement</t>
+  </si>
+  <si>
+    <t>IVEN</t>
+  </si>
+  <si>
+    <t>EPSControl</t>
+  </si>
+  <si>
+    <t>EMotorControl</t>
+  </si>
+  <si>
+    <t>ComMgr</t>
+  </si>
+  <si>
+    <t>SysMgr</t>
+  </si>
+  <si>
+    <t>DiagMaster</t>
+  </si>
+  <si>
+    <t>ComMaster</t>
+  </si>
+  <si>
+    <t>ColDet</t>
+  </si>
+  <si>
+    <t>DcyHandler</t>
+  </si>
+  <si>
+    <t>McuSm</t>
+  </si>
+  <si>
+    <t>Ain</t>
+  </si>
+  <si>
+    <t>Pwm</t>
+  </si>
+  <si>
+    <t>FreeRTOS</t>
+  </si>
+  <si>
+    <t>Dem</t>
+  </si>
+  <si>
+    <t>Nvm</t>
   </si>
 </sst>
 </file>
@@ -1564,7 +1902,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1703,6 +2041,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -1784,7 +2134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1939,6 +2289,21 @@
     <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7409,6 +7774,300 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF02F53-59A5-454C-A300-F860A5996AFF}">
+  <dimension ref="D4:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D4" s="65" t="s">
+        <v>544</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="64" t="s">
+        <v>546</v>
+      </c>
+      <c r="E5" s="64" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="64" t="s">
+        <v>547</v>
+      </c>
+      <c r="E6" s="64" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="64" t="s">
+        <v>548</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="64" t="s">
+        <v>549</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="64" t="s">
+        <v>550</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="64" t="s">
+        <v>552</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="64" t="s">
+        <v>551</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>558</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3DD87A-5819-466C-8F24-99C8AF7DD494}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" customWidth="1"/>
+    <col min="5" max="5" width="45.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="66" t="s">
+        <v>518</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>513</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>515</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="66" t="s">
+        <v>516</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>543</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>517</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>520</v>
+      </c>
+      <c r="E2" s="70" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="66" t="s">
+        <v>521</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>525</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>522</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>523</v>
+      </c>
+      <c r="E3" s="67" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="66" t="s">
+        <v>527</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>528</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>529</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>530</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="66" t="s">
+        <v>532</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>542</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>542</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>542</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="66" t="s">
+        <v>533</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>542</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>542</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>542</v>
+      </c>
+      <c r="E6" s="71" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="66" t="s">
+        <v>534</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>542</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>542</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>542</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="66" t="s">
+        <v>535</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>542</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>542</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>542</v>
+      </c>
+      <c r="E8" s="71" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="225.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="66" t="s">
+        <v>536</v>
+      </c>
+      <c r="B9" s="69" t="s">
+        <v>537</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>537</v>
+      </c>
+      <c r="D9" s="69" t="s">
+        <v>537</v>
+      </c>
+      <c r="E9" s="69" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="66" t="s">
+        <v>538</v>
+      </c>
+      <c r="B10" s="72" t="s">
+        <v>539</v>
+      </c>
+      <c r="C10" s="72" t="s">
+        <v>539</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>539</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="66" t="s">
+        <v>540</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>541</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>541</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>541</v>
+      </c>
+      <c r="E11" s="69" t="s">
+        <v>541</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B876571-A643-4A6E-AEEF-90DA4EBD900F}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
@@ -7574,6 +8233,345 @@
       </c>
       <c r="C14" s="63" t="s">
         <v>473</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED723F3-1E1E-412C-8F3F-6D02F8585AB8}">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B5" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B6" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>477</v>
+      </c>
+      <c r="B7" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>478</v>
+      </c>
+      <c r="B8" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B9" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>481</v>
+      </c>
+      <c r="B10" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>482</v>
+      </c>
+      <c r="B11" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>483</v>
+      </c>
+      <c r="B12" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>484</v>
+      </c>
+      <c r="B13" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>485</v>
+      </c>
+      <c r="B14" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>487</v>
+      </c>
+      <c r="B15" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>488</v>
+      </c>
+      <c r="B16" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>489</v>
+      </c>
+      <c r="B17" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>490</v>
+      </c>
+      <c r="B18" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>491</v>
+      </c>
+      <c r="B19" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>492</v>
+      </c>
+      <c r="B20" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>493</v>
+      </c>
+      <c r="B21" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>494</v>
+      </c>
+      <c r="B22" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>495</v>
+      </c>
+      <c r="B23" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>496</v>
+      </c>
+      <c r="B24" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>497</v>
+      </c>
+      <c r="B25" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>498</v>
+      </c>
+      <c r="B26" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>500</v>
+      </c>
+      <c r="B27" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>499</v>
+      </c>
+      <c r="B28" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>501</v>
+      </c>
+      <c r="B29" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>502</v>
+      </c>
+      <c r="B30" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>503</v>
+      </c>
+      <c r="B31" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>504</v>
+      </c>
+      <c r="B32" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>505</v>
+      </c>
+      <c r="B33" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>506</v>
+      </c>
+      <c r="B34" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>507</v>
+      </c>
+      <c r="B35" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>508</v>
+      </c>
+      <c r="B36" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>512</v>
+      </c>
+      <c r="B37" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>509</v>
+      </c>
+      <c r="B38" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>510</v>
+      </c>
+      <c r="B39" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>511</v>
+      </c>
+      <c r="B40" t="s">
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -17700,8 +18698,8 @@
   </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/FG_PrjDoc.xlsx
+++ b/FG_PrjDoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\FG9326M8GTEI4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BB06B9-2EFE-4949-A0C0-BFBA8FFFF009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFD6413-3801-4B18-8989-5F9005A79E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="847" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="847" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Func" sheetId="2" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="VO Data" sheetId="14" r:id="rId12"/>
     <sheet name="Func TBA" sheetId="10" r:id="rId13"/>
     <sheet name="Func DEC" sheetId="13" r:id="rId14"/>
+    <sheet name="Modules-todo-DEC" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -8244,7 +8245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED723F3-1E1E-412C-8F3F-6D02F8585AB8}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -8575,6 +8576,18 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B87DE9-AC8C-4975-9461-2DE4464EA131}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/FG_PrjDoc.xlsx
+++ b/FG_PrjDoc.xlsx
@@ -8,27 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\FG9326M8GTEI4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFD6413-3801-4B18-8989-5F9005A79E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0B2477-09F3-499D-85A4-B2EBBF28840D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="847" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="847" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Func" sheetId="2" r:id="rId1"/>
-    <sheet name="Reqs-Tst" sheetId="3" r:id="rId2"/>
-    <sheet name="Diag" sheetId="4" r:id="rId3"/>
+    <sheet name="Diag" sheetId="4" r:id="rId2"/>
+    <sheet name="Reqs-Tst" sheetId="3" r:id="rId3"/>
     <sheet name="ICM" sheetId="8" r:id="rId4"/>
-    <sheet name="LCD" sheetId="9" r:id="rId5"/>
-    <sheet name="I2T" sheetId="6" r:id="rId6"/>
-    <sheet name="Params" sheetId="7" r:id="rId7"/>
-    <sheet name="ADCMUX" sheetId="5" r:id="rId8"/>
-    <sheet name="Connector Mapping" sheetId="11" r:id="rId9"/>
-    <sheet name="L1-L8" sheetId="12" r:id="rId10"/>
-    <sheet name="VehStateMachine" sheetId="16" r:id="rId11"/>
-    <sheet name="VO Data" sheetId="14" r:id="rId12"/>
-    <sheet name="Func TBA" sheetId="10" r:id="rId13"/>
-    <sheet name="Func DEC" sheetId="13" r:id="rId14"/>
-    <sheet name="Modules-todo-DEC" sheetId="17" r:id="rId15"/>
+    <sheet name="I2T" sheetId="6" r:id="rId5"/>
+    <sheet name="Params" sheetId="7" r:id="rId6"/>
+    <sheet name="Connector Mapping" sheetId="11" r:id="rId7"/>
+    <sheet name="VO Data" sheetId="14" r:id="rId8"/>
+    <sheet name="Func TBA" sheetId="10" r:id="rId9"/>
+    <sheet name="Func DEC" sheetId="13" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ICM!$A$1:$B$39</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="586">
   <si>
     <t>Central Body Module</t>
   </si>
@@ -672,9 +670,6 @@
     <t>Front right door open</t>
   </si>
   <si>
-    <t>Motor temperature high</t>
-  </si>
-  <si>
     <t>Motor malfunction</t>
   </si>
   <si>
@@ -772,30 +767,6 @@
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Outside temperature</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Gear selected</t>
-  </si>
-  <si>
-    <t>Power steering status</t>
-  </si>
-  <si>
-    <t>KM/H</t>
-  </si>
-  <si>
-    <t>RPM</t>
-  </si>
-  <si>
-    <t>Front Left door open</t>
-  </si>
-  <si>
-    <t>Front Right door open</t>
   </si>
   <si>
     <t>Battery low voltage</t>
@@ -1121,36 +1092,6 @@
     <t>RAIN SENSOR</t>
   </si>
   <si>
-    <t>Auto clima status</t>
-  </si>
-  <si>
-    <t>Fan value</t>
-  </si>
-  <si>
-    <t>RLS</t>
-  </si>
-  <si>
-    <t>Fog lights</t>
-  </si>
-  <si>
-    <t>High beam</t>
-  </si>
-  <si>
-    <t>Turn signal</t>
-  </si>
-  <si>
-    <t>Requested temperature</t>
-  </si>
-  <si>
-    <t>Km overall</t>
-  </si>
-  <si>
-    <t>Km DCY</t>
-  </si>
-  <si>
-    <t>Recirculation status</t>
-  </si>
-  <si>
     <t>Remove absolute unnecessary diagnose
 requests.</t>
   </si>
@@ -1514,9 +1455,6 @@
     <t>QC mode</t>
   </si>
   <si>
-    <t>CAN router</t>
-  </si>
-  <si>
     <t>CAN master</t>
   </si>
   <si>
@@ -1611,9 +1549,6 @@
   </si>
   <si>
     <t>NVM handling</t>
-  </si>
-  <si>
-    <t>CPU load calculation</t>
   </si>
   <si>
     <t>5 series</t>
@@ -1771,18 +1706,12 @@
     <t>In-Vehicle error preventing safe driving.</t>
   </si>
   <si>
-    <t>Additional state for checks</t>
-  </si>
-  <si>
     <t>FBL</t>
   </si>
   <si>
     <t>EncCal</t>
   </si>
   <si>
-    <t>ConfigMgr</t>
-  </si>
-  <si>
     <t>VehState</t>
   </si>
   <si>
@@ -1798,9 +1727,6 @@
     <t>EMotorControl</t>
   </si>
   <si>
-    <t>ComMgr</t>
-  </si>
-  <si>
     <t>SysMgr</t>
   </si>
   <si>
@@ -1832,6 +1758,99 @@
   </si>
   <si>
     <t>Nvm</t>
+  </si>
+  <si>
+    <t>Steering motor temperature high</t>
+  </si>
+  <si>
+    <t>E39</t>
+  </si>
+  <si>
+    <t>black / metallic grey</t>
+  </si>
+  <si>
+    <t>WBADT42040CX97550</t>
+  </si>
+  <si>
+    <t>Module Name</t>
+  </si>
+  <si>
+    <t>Module status</t>
+  </si>
+  <si>
+    <t>EPSCtrl</t>
+  </si>
+  <si>
+    <t>EMotorCtrl</t>
+  </si>
+  <si>
+    <t>EnergyMgmt</t>
+  </si>
+  <si>
+    <t>Iven</t>
+  </si>
+  <si>
+    <t>Can</t>
+  </si>
+  <si>
+    <t>E2e</t>
+  </si>
+  <si>
+    <t>Dcm</t>
+  </si>
+  <si>
+    <t>Dma</t>
+  </si>
+  <si>
+    <t>Eru</t>
+  </si>
+  <si>
+    <t>Gtm</t>
+  </si>
+  <si>
+    <t>Irq</t>
+  </si>
+  <si>
+    <t>Fls</t>
+  </si>
+  <si>
+    <t>Crc</t>
+  </si>
+  <si>
+    <t>McuSM</t>
+  </si>
+  <si>
+    <t>Os</t>
+  </si>
+  <si>
+    <t>Smu</t>
+  </si>
+  <si>
+    <t>Wdg</t>
+  </si>
+  <si>
+    <t>Linker</t>
+  </si>
+  <si>
+    <t>SCR</t>
+  </si>
+  <si>
+    <t>not started</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Vehicle Diagnosis</t>
+  </si>
+  <si>
+    <t>Tester present.</t>
+  </si>
+  <si>
+    <t>Additional state for checks.</t>
+  </si>
+  <si>
+    <t>pending</t>
   </si>
 </sst>
 </file>
@@ -1903,7 +1922,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2054,6 +2073,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -2135,7 +2160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2146,15 +2171,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2163,9 +2179,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2305,6 +2318,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7037,6 +7064,55 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>591058</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38504</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56D3B9B5-60A1-E1B8-638C-E6A740C622BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5267325" y="381000"/>
+          <a:ext cx="3639058" cy="2896004"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -7344,8 +7420,8 @@
   </sheetPr>
   <dimension ref="D4:G24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7357,218 +7433,218 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="33" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="32"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="32"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="31" t="s">
+      <c r="E7" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="32"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="32"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="32"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="32"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="31" t="s">
+      <c r="E11" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="32"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="32"/>
+      <c r="F12" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="32"/>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="31" t="s">
+      <c r="E14" s="29"/>
+      <c r="F14" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="32"/>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="31" t="s">
+      <c r="E15" s="29"/>
+      <c r="F15" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="32"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="32"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D17" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="32"/>
+      <c r="D17" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="28"/>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="32"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="28"/>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="32"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="28"/>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="32"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="28"/>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="32"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="28"/>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="32"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="28"/>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="32"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="28"/>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="35"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7576,197 +7652,505 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50A4DDD-5353-42CB-9E22-D65B52421BFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED723F3-1E1E-412C-8F3F-6D02F8585AB8}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="73" t="s">
+        <v>559</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>560</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
+        <v>547</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="D2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
+        <v>546</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>580</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>456</v>
+      </c>
+      <c r="E3" s="71" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="72" t="s">
+        <v>548</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="71" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="72" t="s">
+        <v>545</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>580</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>457</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="72" t="s">
+        <v>561</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>580</v>
+      </c>
+      <c r="D6" t="s">
+        <v>458</v>
+      </c>
+      <c r="E6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="72" t="s">
+        <v>562</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>580</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>459</v>
+      </c>
+      <c r="E7" s="71" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="72" t="s">
+        <v>538</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="D8" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="E8" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="72" t="s">
+        <v>563</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="D9" t="s">
         <v>461</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="E9" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="72" t="s">
+        <v>564</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="D10" s="71" t="s">
+        <v>462</v>
+      </c>
+      <c r="E10" s="71" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="72" t="s">
+        <v>565</v>
+      </c>
+      <c r="B11" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="D11" s="71" t="s">
+        <v>463</v>
+      </c>
+      <c r="E11" s="71" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="72" t="s">
+        <v>566</v>
+      </c>
+      <c r="B12" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="D12" s="71" t="s">
+        <v>464</v>
+      </c>
+      <c r="E12" s="71" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="72" t="s">
+        <v>567</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>580</v>
+      </c>
+      <c r="D13" s="71" t="s">
+        <v>465</v>
+      </c>
+      <c r="E13" s="71" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="72" t="s">
+        <v>553</v>
+      </c>
+      <c r="B14" s="76" t="s">
+        <v>580</v>
+      </c>
+      <c r="D14" s="71" t="s">
         <v>467</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="E14" s="71" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="72" t="s">
+        <v>550</v>
+      </c>
+      <c r="B15" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="D15" s="71" t="s">
         <v>468</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E15" s="71" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="72" t="s">
+        <v>568</v>
+      </c>
+      <c r="B16" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="D16" t="s">
         <v>469</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="E16" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="72" t="s">
+        <v>569</v>
+      </c>
+      <c r="B17" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="D17" s="71" t="s">
         <v>470</v>
       </c>
-      <c r="H1" s="59"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="57">
-        <v>1</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="G2" s="58" t="s">
+      <c r="E17" s="71" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="72" t="s">
+        <v>570</v>
+      </c>
+      <c r="B18" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="D18" s="71" t="s">
         <v>471</v>
       </c>
-      <c r="H2" s="59"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="57">
-        <v>2</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="G3" s="58" t="s">
+      <c r="E18" s="71" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="72" t="s">
+        <v>571</v>
+      </c>
+      <c r="B19" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="D19" t="s">
         <v>472</v>
       </c>
-      <c r="H3" s="59"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="57">
-        <v>3</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>463</v>
-      </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="G4" s="58" t="s">
-        <v>466</v>
-      </c>
-      <c r="H4" s="60" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="57">
-        <v>4</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>295</v>
-      </c>
-      <c r="C5" s="62" t="s">
-        <v>295</v>
-      </c>
-      <c r="D5" s="62" t="s">
-        <v>295</v>
-      </c>
-      <c r="E5" s="62" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="57">
-        <v>5</v>
-      </c>
-      <c r="B6" s="58" t="s">
-        <v>295</v>
-      </c>
-      <c r="C6" s="62" t="s">
-        <v>295</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>295</v>
-      </c>
-      <c r="E6" s="62" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="57">
-        <v>6</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>295</v>
-      </c>
-      <c r="C7" s="62" t="s">
-        <v>295</v>
-      </c>
-      <c r="D7" s="62" t="s">
-        <v>295</v>
-      </c>
-      <c r="E7" s="62" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="57">
-        <v>7</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>295</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>295</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>295</v>
-      </c>
-      <c r="E8" s="62" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="57">
-        <v>8</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>464</v>
-      </c>
-      <c r="C9" s="61">
-        <v>0.3</v>
-      </c>
-      <c r="D9" s="61">
-        <v>0.3</v>
-      </c>
-      <c r="E9" s="61">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="57">
-        <v>9</v>
-      </c>
-      <c r="B10" s="58" t="s">
-        <v>465</v>
-      </c>
-      <c r="C10" s="61">
-        <v>1.3</v>
-      </c>
-      <c r="D10" s="61">
-        <v>1.3</v>
-      </c>
-      <c r="E10" s="61">
-        <v>1.3</v>
+      <c r="E19" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="72" t="s">
+        <v>572</v>
+      </c>
+      <c r="B20" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="D20" t="s">
+        <v>473</v>
+      </c>
+      <c r="E20" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="72" t="s">
+        <v>554</v>
+      </c>
+      <c r="B21" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="D21" s="71" t="s">
+        <v>474</v>
+      </c>
+      <c r="E21" s="71" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="72" t="s">
+        <v>573</v>
+      </c>
+      <c r="B22" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="D22" t="s">
+        <v>475</v>
+      </c>
+      <c r="E22" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="72" t="s">
+        <v>574</v>
+      </c>
+      <c r="B23" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="D23" t="s">
+        <v>476</v>
+      </c>
+      <c r="E23" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="72" t="s">
+        <v>575</v>
+      </c>
+      <c r="B24" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="D24" t="s">
+        <v>477</v>
+      </c>
+      <c r="E24" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="72" t="s">
+        <v>576</v>
+      </c>
+      <c r="B25" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="D25" t="s">
+        <v>478</v>
+      </c>
+      <c r="E25" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="72" t="s">
+        <v>544</v>
+      </c>
+      <c r="B26" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="D26" s="71" t="s">
+        <v>480</v>
+      </c>
+      <c r="E26" s="71" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="72" t="s">
+        <v>577</v>
+      </c>
+      <c r="B27" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="D27" t="s">
+        <v>479</v>
+      </c>
+      <c r="E27" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="72" t="s">
+        <v>578</v>
+      </c>
+      <c r="B28" s="76" t="s">
+        <v>580</v>
+      </c>
+      <c r="D28" s="71" t="s">
+        <v>481</v>
+      </c>
+      <c r="E28" s="71" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="72" t="s">
+        <v>579</v>
+      </c>
+      <c r="B29" s="77" t="s">
+        <v>585</v>
+      </c>
+      <c r="D29" s="71" t="s">
+        <v>482</v>
+      </c>
+      <c r="E29" s="71" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="72" t="s">
+        <v>537</v>
+      </c>
+      <c r="B30" s="76" t="s">
+        <v>580</v>
+      </c>
+      <c r="D30" s="71" t="s">
+        <v>483</v>
+      </c>
+      <c r="E30" s="71" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D31" s="78" t="s">
+        <v>484</v>
+      </c>
+      <c r="E31" s="78" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D32" s="71" t="s">
+        <v>485</v>
+      </c>
+      <c r="E32" s="71" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33" s="71" t="s">
+        <v>486</v>
+      </c>
+      <c r="E33" s="71" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D34" s="71" t="s">
+        <v>487</v>
+      </c>
+      <c r="E34" s="71" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D35" s="71" t="s">
+        <v>488</v>
+      </c>
+      <c r="E35" s="71" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D36" s="71" t="s">
+        <v>489</v>
+      </c>
+      <c r="E36" s="71" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>490</v>
+      </c>
+      <c r="E37" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="71" t="s">
+        <v>491</v>
+      </c>
+      <c r="E38" s="71" t="s">
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -7774,292 +8158,809 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF02F53-59A5-454C-A300-F860A5996AFF}">
-  <dimension ref="D4:E11"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D477FDB4-7C41-41A3-8A4B-223784B4B6F9}">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="56.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D4" s="65" t="s">
-        <v>544</v>
-      </c>
-      <c r="E4" s="65" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D5" s="64" t="s">
-        <v>546</v>
-      </c>
-      <c r="E5" s="64" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D6" s="64" t="s">
-        <v>547</v>
-      </c>
-      <c r="E6" s="64" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D7" s="64" t="s">
-        <v>548</v>
-      </c>
-      <c r="E7" s="64" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D8" s="64" t="s">
-        <v>549</v>
-      </c>
-      <c r="E8" s="64" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D9" s="64" t="s">
-        <v>550</v>
-      </c>
-      <c r="E9" s="64" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D10" s="64" t="s">
-        <v>552</v>
-      </c>
-      <c r="E10" s="64" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D11" s="64" t="s">
-        <v>551</v>
-      </c>
-      <c r="E11" s="64" t="s">
-        <v>558</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3DD87A-5819-466C-8F24-99C8AF7DD494}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" customWidth="1"/>
-    <col min="5" max="5" width="45.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
-        <v>518</v>
-      </c>
-      <c r="B1" s="67" t="s">
+    <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="61" t="s">
+        <v>523</v>
+      </c>
+      <c r="I1" s="61" t="s">
         <v>524</v>
       </c>
-      <c r="C1" s="67" t="s">
-        <v>513</v>
-      </c>
-      <c r="D1" s="67" t="s">
-        <v>515</v>
-      </c>
-      <c r="E1" s="67" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
-        <v>516</v>
-      </c>
-      <c r="B2" s="70" t="s">
-        <v>543</v>
-      </c>
-      <c r="C2" s="70" t="s">
-        <v>517</v>
-      </c>
-      <c r="D2" s="70" t="s">
-        <v>520</v>
-      </c>
-      <c r="E2" s="70" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
-        <v>521</v>
-      </c>
-      <c r="B3" s="67" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" s="16">
+        <v>37</v>
+      </c>
+      <c r="H2" s="60" t="s">
         <v>525</v>
       </c>
-      <c r="C3" s="67" t="s">
-        <v>522</v>
-      </c>
-      <c r="D3" s="67" t="s">
-        <v>523</v>
-      </c>
-      <c r="E3" s="67" t="s">
+      <c r="I2" s="60" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="F3" s="16">
+        <v>29</v>
+      </c>
+      <c r="H3" s="60" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+      <c r="I3" s="60" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" s="16">
+        <v>30</v>
+      </c>
+      <c r="H4" s="60" t="s">
         <v>527</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="I4" s="60" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="16">
+        <v>28</v>
+      </c>
+      <c r="H5" s="60" t="s">
         <v>528</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="I5" s="60" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="F6" s="16">
+        <v>27</v>
+      </c>
+      <c r="H6" s="60" t="s">
         <v>529</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="I6" s="60" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>531</v>
+      </c>
+      <c r="I7" s="60" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="H8" s="60" t="s">
         <v>530</v>
       </c>
-      <c r="E4" s="70" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="66" t="s">
-        <v>532</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>542</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>542</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>542</v>
-      </c>
-      <c r="E5" s="68" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="66" t="s">
-        <v>533</v>
-      </c>
-      <c r="B6" s="71" t="s">
-        <v>542</v>
-      </c>
-      <c r="C6" s="71" t="s">
-        <v>542</v>
-      </c>
-      <c r="D6" s="71" t="s">
-        <v>542</v>
-      </c>
-      <c r="E6" s="71" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="66" t="s">
-        <v>534</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>542</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>542</v>
-      </c>
-      <c r="D7" s="68" t="s">
-        <v>542</v>
-      </c>
-      <c r="E7" s="68" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="66" t="s">
-        <v>535</v>
-      </c>
-      <c r="B8" s="71" t="s">
-        <v>542</v>
-      </c>
-      <c r="C8" s="71" t="s">
-        <v>542</v>
-      </c>
-      <c r="D8" s="71" t="s">
-        <v>542</v>
-      </c>
-      <c r="E8" s="71" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="225.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="66" t="s">
-        <v>536</v>
-      </c>
-      <c r="B9" s="69" t="s">
-        <v>537</v>
-      </c>
-      <c r="C9" s="69" t="s">
-        <v>537</v>
-      </c>
-      <c r="D9" s="69" t="s">
-        <v>537</v>
-      </c>
-      <c r="E9" s="69" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="66" t="s">
-        <v>538</v>
-      </c>
-      <c r="B10" s="72" t="s">
-        <v>539</v>
-      </c>
-      <c r="C10" s="72" t="s">
-        <v>539</v>
-      </c>
-      <c r="D10" s="72" t="s">
-        <v>539</v>
-      </c>
-      <c r="E10" s="72" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="66" t="s">
-        <v>540</v>
-      </c>
-      <c r="B11" s="69" t="s">
-        <v>541</v>
-      </c>
-      <c r="C11" s="69" t="s">
-        <v>541</v>
-      </c>
-      <c r="D11" s="69" t="s">
-        <v>541</v>
-      </c>
-      <c r="E11" s="69" t="s">
-        <v>541</v>
+      <c r="I8" s="60" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="H9" s="60" t="s">
+        <v>582</v>
+      </c>
+      <c r="I9" s="60" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="F14" s="16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="F16" s="16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="D41" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="D42" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D43" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D44" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -8068,531 +8969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B876571-A643-4A6E-AEEF-90DA4EBD900F}">
-  <sheetPr>
-    <tabColor theme="7" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
-        <v>384</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>378</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
-        <v>383</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>377</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
-        <v>382</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>365</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
-        <v>381</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>376</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
-        <v>366</v>
-      </c>
-      <c r="B6" s="53" t="s">
-        <v>375</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
-        <v>365</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>374</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
-        <v>380</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>373</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
-        <v>379</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>372</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
-        <v>438</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>371</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="s">
-        <v>437</v>
-      </c>
-      <c r="B11" s="53" t="s">
-        <v>360</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
-        <v>436</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>370</v>
-      </c>
-      <c r="C12" s="54" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53" t="s">
-        <v>369</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="53" t="s">
-        <v>436</v>
-      </c>
-      <c r="C14" s="63" t="s">
-        <v>473</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED723F3-1E1E-412C-8F3F-6D02F8585AB8}">
-  <dimension ref="A1:B40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>474</v>
-      </c>
-      <c r="B2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>475</v>
-      </c>
-      <c r="B3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>476</v>
-      </c>
-      <c r="B5" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>479</v>
-      </c>
-      <c r="B6" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>477</v>
-      </c>
-      <c r="B7" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>478</v>
-      </c>
-      <c r="B8" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>480</v>
-      </c>
-      <c r="B9" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>481</v>
-      </c>
-      <c r="B10" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>482</v>
-      </c>
-      <c r="B11" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>483</v>
-      </c>
-      <c r="B12" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>484</v>
-      </c>
-      <c r="B13" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>485</v>
-      </c>
-      <c r="B14" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>487</v>
-      </c>
-      <c r="B15" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>488</v>
-      </c>
-      <c r="B16" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>489</v>
-      </c>
-      <c r="B17" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>490</v>
-      </c>
-      <c r="B18" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>491</v>
-      </c>
-      <c r="B19" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>492</v>
-      </c>
-      <c r="B20" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>493</v>
-      </c>
-      <c r="B21" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>494</v>
-      </c>
-      <c r="B22" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>495</v>
-      </c>
-      <c r="B23" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>496</v>
-      </c>
-      <c r="B24" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>497</v>
-      </c>
-      <c r="B25" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>498</v>
-      </c>
-      <c r="B26" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>500</v>
-      </c>
-      <c r="B27" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>499</v>
-      </c>
-      <c r="B28" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>501</v>
-      </c>
-      <c r="B29" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>502</v>
-      </c>
-      <c r="B30" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>503</v>
-      </c>
-      <c r="B31" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>504</v>
-      </c>
-      <c r="B32" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>505</v>
-      </c>
-      <c r="B33" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>506</v>
-      </c>
-      <c r="B34" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>507</v>
-      </c>
-      <c r="B35" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>508</v>
-      </c>
-      <c r="B36" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>512</v>
-      </c>
-      <c r="B37" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>509</v>
-      </c>
-      <c r="B38" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>510</v>
-      </c>
-      <c r="B39" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>511</v>
-      </c>
-      <c r="B40" t="s">
-        <v>578</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B87DE9-AC8C-4975-9461-2DE4464EA131}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADD118B-65DB-43B0-88DD-8E77DDC02718}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -8623,79 +9000,79 @@
     <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="23" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="23" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-    </row>
-    <row r="2" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+    </row>
+    <row r="2" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="20" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8709,10 +9086,10 @@
       <c r="C3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="21">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -8721,10 +9098,10 @@
       <c r="G3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="21">
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -8749,10 +9126,10 @@
       <c r="C4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="21">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -8761,10 +9138,10 @@
       <c r="G4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="21">
         <v>2</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -8789,10 +9166,10 @@
       <c r="C5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="21">
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -8801,10 +9178,10 @@
       <c r="G5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="21">
         <v>3</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -8829,10 +9206,10 @@
       <c r="C6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="21">
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -8841,10 +9218,10 @@
       <c r="G6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="21">
         <v>4</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -8869,10 +9246,10 @@
       <c r="C7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="21">
         <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -8881,10 +9258,10 @@
       <c r="G7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="21">
         <v>5</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -8909,10 +9286,10 @@
       <c r="C8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="21">
         <v>6</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -8921,10 +9298,10 @@
       <c r="G8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="21">
         <v>6</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -8949,10 +9326,10 @@
       <c r="C9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="21">
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -8961,10 +9338,10 @@
       <c r="G9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="21">
         <v>7</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -8989,10 +9366,10 @@
       <c r="C10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="21">
         <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -9001,10 +9378,10 @@
       <c r="G10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="21">
         <v>8</v>
       </c>
       <c r="J10" s="2" t="s">
@@ -9029,10 +9406,10 @@
       <c r="C11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="21">
         <v>9</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -9041,10 +9418,10 @@
       <c r="G11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="21">
         <v>9</v>
       </c>
       <c r="J11" s="2" t="s">
@@ -9069,10 +9446,10 @@
       <c r="C12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="21">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -9081,10 +9458,10 @@
       <c r="G12" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="21">
         <v>10</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -9109,10 +9486,10 @@
       <c r="C13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="21">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -9121,10 +9498,10 @@
       <c r="G13" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="21">
         <v>11</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -9149,10 +9526,10 @@
       <c r="C14" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="21">
         <v>12</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -9161,10 +9538,10 @@
       <c r="G14" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="21">
         <v>12</v>
       </c>
       <c r="J14" s="2" t="s">
@@ -9189,10 +9566,10 @@
       <c r="C15" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="21">
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -9201,10 +9578,10 @@
       <c r="G15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="21">
         <v>13</v>
       </c>
       <c r="J15" s="2" t="s">
@@ -9229,10 +9606,10 @@
       <c r="C16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="21">
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -9241,10 +9618,10 @@
       <c r="G16" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16" s="21">
         <v>14</v>
       </c>
       <c r="J16" s="2" t="s">
@@ -9269,10 +9646,10 @@
       <c r="C17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="21">
         <v>15</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -9281,10 +9658,10 @@
       <c r="G17" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="21">
         <v>15</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -9309,10 +9686,10 @@
       <c r="C18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="21">
         <v>16</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -9321,10 +9698,10 @@
       <c r="G18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18" s="21">
         <v>16</v>
       </c>
       <c r="J18" s="2" t="s">
@@ -9349,10 +9726,10 @@
       <c r="C19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="21">
         <v>17</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -9361,10 +9738,10 @@
       <c r="G19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="I19" s="25">
+      <c r="I19" s="21">
         <v>17</v>
       </c>
       <c r="J19" s="2" t="s">
@@ -9389,10 +9766,10 @@
       <c r="C20" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="21">
         <v>18</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -9401,10 +9778,10 @@
       <c r="G20" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I20" s="21">
         <v>18</v>
       </c>
       <c r="J20" s="2" t="s">
@@ -9429,10 +9806,10 @@
       <c r="C21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="21">
         <v>19</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -9441,10 +9818,10 @@
       <c r="G21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="I21" s="25">
+      <c r="I21" s="21">
         <v>19</v>
       </c>
       <c r="J21" s="2" t="s">
@@ -9469,10 +9846,10 @@
       <c r="C22" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="21">
         <v>20</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -9481,10 +9858,10 @@
       <c r="G22" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="H22" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22" s="21">
         <v>20</v>
       </c>
       <c r="J22" s="2" t="s">
@@ -9509,10 +9886,10 @@
       <c r="C23" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="21">
         <v>21</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -9521,10 +9898,10 @@
       <c r="G23" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H23" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I23" s="21">
         <v>21</v>
       </c>
       <c r="J23" s="2" t="s">
@@ -9544,15 +9921,15 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="I24" s="25">
+      <c r="I24" s="21">
         <v>22</v>
       </c>
       <c r="J24" s="2" t="s">
@@ -9573,7 +9950,7 @@
       <c r="C25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="22" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9587,7 +9964,7 @@
       <c r="C26" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="22" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9601,7 +9978,7 @@
       <c r="C27" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="22" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9615,7 +9992,7 @@
       <c r="C28" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="22" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9629,7 +10006,7 @@
       <c r="C29" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="22" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9643,7 +10020,7 @@
       <c r="C30" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="22" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9657,7 +10034,7 @@
       <c r="C31" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="22" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9671,7 +10048,7 @@
       <c r="C32" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="22" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9685,1392 +10062,423 @@
       <c r="C33" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="22" t="s">
         <v>94</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D477FDB4-7C41-41A3-8A4B-223784B4B6F9}">
-  <sheetPr>
-    <tabColor theme="1"/>
-  </sheetPr>
-  <dimension ref="A1:F44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" style="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="F2" s="20">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="F3" s="20">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="F4" s="20">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="F5" s="20">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="F6" s="20">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="F14" s="20">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="F16" s="20">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="D41" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5"/>
-      <c r="D42" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D43" s="17" t="s">
-        <v>396</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>393</v>
-      </c>
-      <c r="F43" s="20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D44" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>394</v>
-      </c>
-      <c r="F44" s="20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DB6A95-57EB-4A34-8E48-93DC0694EE7D}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="22.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="B1" s="25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>13</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>25</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>25</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>26</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>26</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>27</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>27</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>28</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>28</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>29</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>30</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>31</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>29</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>30</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>31</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>32</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>32</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>33</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>33</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>34</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>34</v>
-      </c>
-      <c r="B14" s="11" t="s">
+      <c r="C14" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>35</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>35</v>
-      </c>
-      <c r="B15" s="11" t="s">
+      <c r="C15" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>37</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>40</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>37</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>40</v>
-      </c>
-      <c r="B17" s="11" t="s">
+      <c r="C17" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="69">
+        <v>53</v>
+      </c>
+      <c r="B18" s="70" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="69">
+        <v>58</v>
+      </c>
+      <c r="B19" s="70" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>53</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>58</v>
-      </c>
-      <c r="B19" s="11" t="s">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="69">
+        <v>59</v>
+      </c>
+      <c r="B20" s="70" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>59</v>
-      </c>
-      <c r="B20" s="11" t="s">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="69">
+        <v>60</v>
+      </c>
+      <c r="B21" s="70" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <v>60</v>
-      </c>
-      <c r="B21" s="11" t="s">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="69">
+        <v>61</v>
+      </c>
+      <c r="B22" s="70" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <v>61</v>
-      </c>
-      <c r="B22" s="11" t="s">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="69">
+        <v>62</v>
+      </c>
+      <c r="B23" s="70" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <v>62</v>
-      </c>
-      <c r="B23" s="11" t="s">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="69">
+        <v>63</v>
+      </c>
+      <c r="B24" s="70" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
-        <v>63</v>
-      </c>
-      <c r="B24" s="11" t="s">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="69">
+        <v>64</v>
+      </c>
+      <c r="B25" s="70" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
-        <v>64</v>
-      </c>
-      <c r="B25" s="11" t="s">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="69">
+        <v>65</v>
+      </c>
+      <c r="B26" s="70" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>65</v>
-      </c>
-      <c r="B26" s="11" t="s">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="69">
+        <v>66</v>
+      </c>
+      <c r="B27" s="70" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <v>66</v>
-      </c>
-      <c r="B27" s="11" t="s">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="69">
+        <v>67</v>
+      </c>
+      <c r="B28" s="70" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
-        <v>67</v>
-      </c>
-      <c r="B28" s="11" t="s">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="69">
+        <v>68</v>
+      </c>
+      <c r="B29" s="70" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
-        <v>68</v>
-      </c>
-      <c r="B29" s="11" t="s">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="69">
+        <v>69</v>
+      </c>
+      <c r="B30" s="70" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
-        <v>69</v>
-      </c>
-      <c r="B30" s="11" t="s">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="69">
+        <v>70</v>
+      </c>
+      <c r="B31" s="70" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
-        <v>70</v>
-      </c>
-      <c r="B31" s="11" t="s">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="69">
+        <v>71</v>
+      </c>
+      <c r="B32" s="70" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
-        <v>71</v>
-      </c>
-      <c r="B32" s="11" t="s">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="69">
+        <v>72</v>
+      </c>
+      <c r="B33" s="70" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
-        <v>72</v>
-      </c>
-      <c r="B33" s="11" t="s">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="69">
+        <v>73</v>
+      </c>
+      <c r="B34" s="70" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
-        <v>73</v>
-      </c>
-      <c r="B34" s="11" t="s">
+    <row r="35" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="69">
+        <v>74</v>
+      </c>
+      <c r="B35" s="70" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
-        <v>74</v>
-      </c>
-      <c r="B35" s="11" t="s">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="69">
+        <v>75</v>
+      </c>
+      <c r="B36" s="70" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
-        <v>75</v>
-      </c>
-      <c r="B36" s="11" t="s">
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="69">
+        <v>76</v>
+      </c>
+      <c r="B37" s="70" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
-        <v>76</v>
-      </c>
-      <c r="B37" s="11" t="s">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="69">
+        <v>77</v>
+      </c>
+      <c r="B38" s="70" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
-        <v>77</v>
-      </c>
-      <c r="B38" s="11" t="s">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="69">
+        <v>78</v>
+      </c>
+      <c r="B39" s="70" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
-        <v>78</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:B39" xr:uid="{10DB6A95-57EB-4A34-8E48-93DC0694EE7D}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Acceleration control malfunction"/>
+        <filter val="Body control malfunction"/>
+        <filter val="Brake control malfunction"/>
+        <filter val="Front left door open"/>
+        <filter val="Front right door open"/>
+        <filter val="Gearbox control malfunction"/>
+        <filter val="Ignition control malfunction"/>
+        <filter val="Long range radar malfunction"/>
+        <filter val="Low voltage power supply malfunction"/>
+        <filter val="Motor fan malfunction"/>
+        <filter val="Motor malfunction"/>
+        <filter val="Motor temperature high"/>
+        <filter val="Power steering control malfunction"/>
+        <filter val="Power steering malfunction"/>
+        <filter val="Powertrain malfunction"/>
+        <filter val="Reverse camera malfunction"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3899573D-7394-4BE8-84F7-E0AC43B13409}">
-  <sheetPr>
-    <tabColor rgb="FF7030A0"/>
-  </sheetPr>
-  <dimension ref="A1:A53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="49" style="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E488F9FB-F8CD-4390-B082-0500A3EB9E3F}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -11078,7 +10486,7 @@
   <dimension ref="A1:AK421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18704,7 +18112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95396752-8028-429C-8711-C960E70EC976}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -18712,7 +18120,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18727,26 +18135,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="A1" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="G1" s="28" t="s">
+      <c r="E1" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="28" t="s">
-        <v>335</v>
+      <c r="I1" s="24" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -18754,22 +18162,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="C2" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>167</v>
       </c>
       <c r="E2" s="4">
         <v>50</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="G2" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="G2" s="23" t="s">
         <v>167</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -18777,22 +18185,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="C3" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>167</v>
       </c>
       <c r="E3" s="4">
         <v>50</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="G3" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="G3" s="23" t="s">
         <v>167</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -18800,22 +18208,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="C4" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>167</v>
       </c>
       <c r="E4" s="4">
         <v>50</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="G4" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="G4" s="23" t="s">
         <v>167</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -18823,18 +18231,18 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C5" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>167</v>
       </c>
       <c r="E5" s="4">
         <v>50</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="G5" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="G5" s="23" t="s">
         <v>167</v>
       </c>
       <c r="I5" s="4"/>
@@ -18844,18 +18252,18 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C6" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>167</v>
       </c>
       <c r="E6" s="4">
         <v>50</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="G6" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>167</v>
       </c>
       <c r="I6" s="4"/>
@@ -18865,18 +18273,18 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C7" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>167</v>
       </c>
       <c r="E7" s="4">
         <v>255</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="G7" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="G7" s="23" t="s">
         <v>167</v>
       </c>
       <c r="I7" s="4"/>
@@ -18886,18 +18294,18 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C8" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>167</v>
       </c>
       <c r="E8" s="4">
         <v>255</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="G8" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="G8" s="23" t="s">
         <v>167</v>
       </c>
       <c r="I8" s="4"/>
@@ -18907,18 +18315,18 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="C9" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>167</v>
       </c>
       <c r="E9" s="4">
         <v>255</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="G9" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>167</v>
       </c>
       <c r="I9" s="4"/>
@@ -18928,18 +18336,18 @@
         <v>75</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="C10" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>167</v>
       </c>
       <c r="E10" s="4">
         <v>255</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="G10" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>167</v>
       </c>
       <c r="I10" s="4"/>
@@ -18949,18 +18357,18 @@
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="C11" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>167</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="G11" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>167</v>
       </c>
       <c r="I11" s="4"/>
@@ -18968,14 +18376,14 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="27"/>
+      <c r="C12" s="23"/>
       <c r="E12" s="4">
         <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="G12" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="G12" s="23" t="s">
         <v>167</v>
       </c>
       <c r="I12" s="4"/>
@@ -18983,14 +18391,14 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="27"/>
+      <c r="C13" s="23"/>
       <c r="E13" s="4">
         <v>255</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="G13" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="G13" s="23" t="s">
         <v>167</v>
       </c>
       <c r="I13" s="4"/>
@@ -18998,14 +18406,14 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="27"/>
+      <c r="C14" s="23"/>
       <c r="E14" s="4">
         <v>255</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="G14" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="G14" s="23" t="s">
         <v>167</v>
       </c>
       <c r="I14" s="4"/>
@@ -19013,14 +18421,14 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="27"/>
+      <c r="C15" s="23"/>
       <c r="E15" s="4">
         <v>5</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="G15" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="G15" s="23" t="s">
         <v>167</v>
       </c>
       <c r="I15" s="4"/>
@@ -19028,14 +18436,14 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="27"/>
+      <c r="C16" s="23"/>
       <c r="E16" s="4">
         <v>25</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="G16" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="G16" s="23" t="s">
         <v>167</v>
       </c>
       <c r="I16" s="4"/>
@@ -19043,14 +18451,14 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="27"/>
+      <c r="C17" s="23"/>
       <c r="E17" s="4">
         <v>10</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="G17" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="G17" s="23" t="s">
         <v>167</v>
       </c>
       <c r="I17" s="4"/>
@@ -19058,14 +18466,14 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="27"/>
+      <c r="C18" s="23"/>
       <c r="E18" s="4">
         <v>5</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="G18" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="G18" s="23" t="s">
         <v>167</v>
       </c>
       <c r="I18" s="4"/>
@@ -19073,14 +18481,14 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="27"/>
+      <c r="C19" s="23"/>
       <c r="E19" s="4">
         <v>55</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="G19" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="G19" s="23" t="s">
         <v>166</v>
       </c>
       <c r="I19" s="4"/>
@@ -19088,14 +18496,14 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="27"/>
+      <c r="C20" s="23"/>
       <c r="E20" s="4">
         <v>25</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="G20" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="G20" s="23" t="s">
         <v>166</v>
       </c>
       <c r="I20" s="4"/>
@@ -19103,14 +18511,14 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="27"/>
+      <c r="C21" s="23"/>
       <c r="E21" s="4">
         <v>2</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="G21" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="G21" s="23" t="s">
         <v>166</v>
       </c>
       <c r="I21" s="4"/>
@@ -19118,14 +18526,14 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="27"/>
+      <c r="C22" s="23"/>
       <c r="E22" s="4">
         <v>5</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="G22" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="G22" s="23" t="s">
         <v>166</v>
       </c>
       <c r="I22" s="4"/>
@@ -19133,14 +18541,14 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="27"/>
+      <c r="C23" s="23"/>
       <c r="E23" s="4">
         <v>9</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="G23" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="G23" s="23" t="s">
         <v>166</v>
       </c>
       <c r="I23" s="4"/>
@@ -19150,173 +18558,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344F19F5-4E3D-4AC6-ABD1-DD6BA9B2D03D}">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>338</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="39">
-        <v>0</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="39">
-        <v>1</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="39">
-        <v>2</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="39">
-        <v>3</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="39">
-        <v>4</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="39">
-        <v>5</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="39">
-        <v>6</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="39">
-        <v>7</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="39">
-        <v>8</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="39">
-        <v>9</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="39">
-        <v>10</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="39">
-        <v>11</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="39">
-        <v>12</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="39">
-        <v>13</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="39">
-        <v>14</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="39">
-        <v>15</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>340</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8020878B-8971-40CC-A90C-87FECF18FF78}">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19325,895 +18575,1572 @@
     <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>379</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>441</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>442</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>449</v>
+      </c>
+      <c r="M1" s="45" t="s">
+        <v>450</v>
+      </c>
+      <c r="O1" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="P1" s="55"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="38">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39">
+        <v>1</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="F2" s="35">
+        <v>0</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="I2" s="53">
+        <v>1</v>
+      </c>
+      <c r="J2" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="O2" s="54" t="s">
+        <v>452</v>
+      </c>
+      <c r="P2" s="55"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="38"/>
+      <c r="B3" s="39">
+        <v>2</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>384</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="F3" s="35">
+        <v>1</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="I3" s="53">
+        <v>2</v>
+      </c>
+      <c r="J3" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="O3" s="54" t="s">
+        <v>453</v>
+      </c>
+      <c r="P3" s="55"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39">
+        <v>3</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="F4" s="35">
+        <v>2</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="I4" s="53">
+        <v>3</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>444</v>
+      </c>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="O4" s="54" t="s">
+        <v>447</v>
+      </c>
+      <c r="P4" s="56" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+      <c r="B5" s="39">
+        <v>4</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="D5" s="47"/>
+      <c r="F5" s="35">
+        <v>3</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="I5" s="53">
+        <v>4</v>
+      </c>
+      <c r="J5" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="K5" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="L5" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="M5" s="58" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="38"/>
+      <c r="B6" s="39">
+        <v>5</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="F6" s="35">
+        <v>4</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="I6" s="53">
+        <v>5</v>
+      </c>
+      <c r="J6" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="K6" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="L6" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="M6" s="58" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="39">
+        <v>6</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="D7" s="47"/>
+      <c r="F7" s="35">
+        <v>5</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="I7" s="53">
+        <v>6</v>
+      </c>
+      <c r="J7" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="K7" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="L7" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="M7" s="58" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="39">
+        <v>7</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>420</v>
+      </c>
+      <c r="F8" s="35">
+        <v>6</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="I8" s="53">
+        <v>7</v>
+      </c>
+      <c r="J8" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="K8" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="L8" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="M8" s="58" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="39">
+        <v>8</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="D9" s="47"/>
+      <c r="F9" s="35">
+        <v>7</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="I9" s="53">
+        <v>8</v>
+      </c>
+      <c r="J9" s="54" t="s">
+        <v>445</v>
+      </c>
+      <c r="K9" s="57">
+        <v>0.3</v>
+      </c>
+      <c r="L9" s="57">
+        <v>0.3</v>
+      </c>
+      <c r="M9" s="57">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="39">
+        <v>9</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="F10" s="35">
+        <v>8</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="I10" s="53">
+        <v>9</v>
+      </c>
+      <c r="J10" s="54" t="s">
+        <v>446</v>
+      </c>
+      <c r="K10" s="57">
+        <v>1.3</v>
+      </c>
+      <c r="L10" s="57">
+        <v>1.3</v>
+      </c>
+      <c r="M10" s="57">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
+      <c r="B11" s="39">
+        <v>10</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>389</v>
+      </c>
+      <c r="D11" s="47"/>
+      <c r="F11" s="35">
+        <v>9</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="38">
+        <v>2</v>
+      </c>
+      <c r="B12" s="40">
+        <v>1</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="D12" s="47"/>
+      <c r="F12" s="35">
+        <v>10</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="40">
+        <v>2</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>392</v>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="F13" s="35">
+        <v>11</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="40">
+        <v>3</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>393</v>
+      </c>
+      <c r="D14" s="47"/>
+      <c r="F14" s="35">
+        <v>12</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
+      <c r="B15" s="40">
+        <v>4</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>394</v>
+      </c>
+      <c r="D15" s="47"/>
+      <c r="F15" s="35">
+        <v>13</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="40">
+        <v>5</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>395</v>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="F16" s="35">
+        <v>14</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="40">
+        <v>6</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>396</v>
+      </c>
+      <c r="D17" s="47"/>
+      <c r="F17" s="35">
+        <v>15</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
+      <c r="B18" s="40">
+        <v>7</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
+      <c r="B19" s="40">
+        <v>8</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
+      <c r="B20" s="40">
+        <v>9</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
+      <c r="B21" s="40">
+        <v>10</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="38">
+        <v>3</v>
+      </c>
+      <c r="B22" s="39">
+        <v>1</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="D22" s="47"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
+      <c r="B23" s="39">
+        <v>2</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>384</v>
+      </c>
+      <c r="D23" s="47"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="38"/>
+      <c r="B24" s="39">
+        <v>3</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="D24" s="47"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="38"/>
+      <c r="B25" s="39">
+        <v>4</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="D25" s="47"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
+      <c r="B26" s="39">
+        <v>5</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>384</v>
+      </c>
+      <c r="D26" s="47"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="38"/>
+      <c r="B27" s="39">
+        <v>6</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="D27" s="47"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="38"/>
+      <c r="B28" s="39">
+        <v>7</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="38"/>
+      <c r="B29" s="39">
+        <v>8</v>
+      </c>
+      <c r="C29" s="41" t="s">
         <v>397</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="D29" s="47"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="38"/>
+      <c r="B30" s="39">
+        <v>9</v>
+      </c>
+      <c r="C30" s="41" t="s">
         <v>398</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="D30" s="47"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="38"/>
+      <c r="B31" s="39">
+        <v>10</v>
+      </c>
+      <c r="C31" s="41" t="s">
         <v>399</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D31" s="47"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="38">
+        <v>4</v>
+      </c>
+      <c r="B32" s="40">
+        <v>1</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>400</v>
+      </c>
+      <c r="D32" s="47"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="38"/>
+      <c r="B33" s="40">
+        <v>2</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="D33" s="47"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
+      <c r="B34" s="40">
+        <v>3</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="D34" s="47"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="38"/>
+      <c r="B35" s="40">
+        <v>4</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="38"/>
+      <c r="B36" s="40">
+        <v>5</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="D36" s="52" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="38"/>
+      <c r="B37" s="40">
+        <v>6</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="D37" s="52" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="38"/>
+      <c r="B38" s="40">
+        <v>7</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="38"/>
+      <c r="B39" s="40">
+        <v>8</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="38"/>
+      <c r="B40" s="40">
+        <v>9</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="D40" s="52" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="38"/>
+      <c r="B41" s="40">
+        <v>10</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="D41" s="52" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="38">
+        <v>5</v>
+      </c>
+      <c r="B42" s="39">
+        <v>1</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>403</v>
+      </c>
+      <c r="D42" s="47"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="38"/>
+      <c r="B43" s="39">
+        <v>2</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="D43" s="47"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="38"/>
+      <c r="B44" s="39">
+        <v>3</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>408</v>
+      </c>
+      <c r="D44" s="47"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="38"/>
+      <c r="B45" s="39">
+        <v>4</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="D45" s="47"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="38"/>
+      <c r="B46" s="39">
+        <v>5</v>
+      </c>
+      <c r="C46" s="41" t="s">
+        <v>409</v>
+      </c>
+      <c r="D46" s="47"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="38"/>
+      <c r="B47" s="39">
+        <v>6</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="D47" s="47"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="38"/>
+      <c r="B48" s="39">
+        <v>7</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="D48" s="47"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="38"/>
+      <c r="B49" s="39">
+        <v>8</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="D49" s="47"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="38"/>
+      <c r="B50" s="39">
+        <v>9</v>
+      </c>
+      <c r="C50" s="41" t="s">
+        <v>412</v>
+      </c>
+      <c r="D50" s="47"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="38"/>
+      <c r="B51" s="39">
+        <v>10</v>
+      </c>
+      <c r="C51" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="D51" s="52" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="38">
+        <v>6</v>
+      </c>
+      <c r="B52" s="40">
+        <v>1</v>
+      </c>
+      <c r="C52" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="D52" s="47"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="38"/>
+      <c r="B53" s="40">
+        <v>2</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="D53" s="47"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="38"/>
+      <c r="B54" s="40">
+        <v>3</v>
+      </c>
+      <c r="C54" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="D54" s="47"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="38"/>
+      <c r="B55" s="40">
+        <v>4</v>
+      </c>
+      <c r="C55" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="D55" s="52" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="42">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="38"/>
+      <c r="B56" s="40">
+        <v>5</v>
+      </c>
+      <c r="C56" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="D56" s="52" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="38"/>
+      <c r="B57" s="40">
+        <v>6</v>
+      </c>
+      <c r="C57" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="D57" s="52" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="38"/>
+      <c r="B58" s="40">
+        <v>7</v>
+      </c>
+      <c r="C58" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="D58" s="52" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="38"/>
+      <c r="B59" s="40">
+        <v>8</v>
+      </c>
+      <c r="C59" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="D59" s="52" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="38"/>
+      <c r="B60" s="40">
+        <v>9</v>
+      </c>
+      <c r="C60" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="D60" s="52" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="38"/>
+      <c r="B61" s="40">
+        <v>10</v>
+      </c>
+      <c r="C61" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="D61" s="52" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="38">
+        <v>7</v>
+      </c>
+      <c r="B62" s="39">
         <v>1</v>
       </c>
-      <c r="B2" s="43">
+      <c r="C62" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="D62" s="47"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="38"/>
+      <c r="B63" s="39">
+        <v>2</v>
+      </c>
+      <c r="C63" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="D63" s="47"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="38"/>
+      <c r="B64" s="39">
+        <v>3</v>
+      </c>
+      <c r="C64" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="D64" s="47"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="38"/>
+      <c r="B65" s="39">
+        <v>4</v>
+      </c>
+      <c r="C65" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="D65" s="47"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="38"/>
+      <c r="B66" s="39">
+        <v>5</v>
+      </c>
+      <c r="C66" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="D66" s="47"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="38"/>
+      <c r="B67" s="39">
+        <v>6</v>
+      </c>
+      <c r="C67" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="D67" s="47"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="38"/>
+      <c r="B68" s="39">
+        <v>7</v>
+      </c>
+      <c r="C68" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="D68" s="47"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="38"/>
+      <c r="B69" s="39">
+        <v>8</v>
+      </c>
+      <c r="C69" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="D69" s="47"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="38"/>
+      <c r="B70" s="39">
+        <v>9</v>
+      </c>
+      <c r="C70" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="D70" s="47"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="38"/>
+      <c r="B71" s="39">
+        <v>10</v>
+      </c>
+      <c r="C71" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="D71" s="47"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="38">
+        <v>8</v>
+      </c>
+      <c r="B72" s="40">
         <v>1</v>
       </c>
-      <c r="C2" s="45" t="s">
-        <v>400</v>
-      </c>
-      <c r="D2" s="51"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43">
+      <c r="C72" s="43" t="s">
+        <v>433</v>
+      </c>
+      <c r="D72" s="47"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="38"/>
+      <c r="B73" s="40">
         <v>2</v>
       </c>
-      <c r="C3" s="45" t="s">
-        <v>403</v>
-      </c>
-      <c r="D3" s="51"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43">
+      <c r="C73" s="43" t="s">
+        <v>434</v>
+      </c>
+      <c r="D73" s="47"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="38"/>
+      <c r="B74" s="40">
         <v>3</v>
       </c>
-      <c r="C4" s="45" t="s">
-        <v>404</v>
-      </c>
-      <c r="D4" s="51"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43">
+      <c r="C74" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="D74" s="52" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="38"/>
+      <c r="B75" s="40">
         <v>4</v>
       </c>
-      <c r="C5" s="45" t="s">
-        <v>401</v>
-      </c>
-      <c r="D5" s="51"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43">
+      <c r="C75" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="D75" s="52" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="38"/>
+      <c r="B76" s="40">
         <v>5</v>
       </c>
-      <c r="C6" s="45" t="s">
-        <v>405</v>
-      </c>
-      <c r="D6" s="51"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43">
+      <c r="C76" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="D76" s="52" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="38"/>
+      <c r="B77" s="40">
         <v>6</v>
       </c>
-      <c r="C7" s="45" t="s">
-        <v>406</v>
-      </c>
-      <c r="D7" s="51"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43">
+      <c r="C77" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="D77" s="52" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="38"/>
+      <c r="B78" s="40">
         <v>7</v>
       </c>
-      <c r="C8" s="46" t="s">
-        <v>409</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="43">
+      <c r="C78" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="D78" s="52" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="38"/>
+      <c r="B79" s="40">
         <v>8</v>
       </c>
-      <c r="C9" s="45" t="s">
-        <v>402</v>
-      </c>
-      <c r="D9" s="51"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="43">
+      <c r="C79" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="D79" s="52" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="38"/>
+      <c r="B80" s="40">
         <v>9</v>
       </c>
-      <c r="C10" s="45" t="s">
-        <v>407</v>
-      </c>
-      <c r="D10" s="51"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="43">
+      <c r="C80" s="43" t="s">
+        <v>432</v>
+      </c>
+      <c r="D80" s="47"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="38"/>
+      <c r="B81" s="40">
         <v>10</v>
       </c>
-      <c r="C11" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="D11" s="51"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="42">
-        <v>2</v>
-      </c>
-      <c r="B12" s="44">
-        <v>1</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>410</v>
-      </c>
-      <c r="D12" s="51"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="44">
-        <v>2</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>411</v>
-      </c>
-      <c r="D13" s="51"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="44">
-        <v>3</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>412</v>
-      </c>
-      <c r="D14" s="51"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="44">
-        <v>4</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>413</v>
-      </c>
-      <c r="D15" s="51"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="44">
-        <v>5</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>414</v>
-      </c>
-      <c r="D16" s="51"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="44">
-        <v>6</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>415</v>
-      </c>
-      <c r="D17" s="51"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="44">
-        <v>7</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>409</v>
-      </c>
-      <c r="D18" s="51" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="44">
-        <v>8</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>409</v>
-      </c>
-      <c r="D19" s="51" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="44">
-        <v>9</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>409</v>
-      </c>
-      <c r="D20" s="51" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="44">
-        <v>10</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>409</v>
-      </c>
-      <c r="D21" s="51" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="42">
-        <v>3</v>
-      </c>
-      <c r="B22" s="43">
-        <v>1</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>400</v>
-      </c>
-      <c r="D22" s="51"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="43">
-        <v>2</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>403</v>
-      </c>
-      <c r="D23" s="51"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="43">
-        <v>3</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>404</v>
-      </c>
-      <c r="D24" s="51"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="43">
-        <v>4</v>
-      </c>
-      <c r="C25" s="45" t="s">
-        <v>400</v>
-      </c>
-      <c r="D25" s="51"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="43">
-        <v>5</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>403</v>
-      </c>
-      <c r="D26" s="51"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="43">
-        <v>6</v>
-      </c>
-      <c r="C27" s="45" t="s">
-        <v>404</v>
-      </c>
-      <c r="D27" s="51"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="43">
-        <v>7</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>409</v>
-      </c>
-      <c r="D28" s="56" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="43">
-        <v>8</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>416</v>
-      </c>
-      <c r="D29" s="51"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="43">
-        <v>9</v>
-      </c>
-      <c r="C30" s="45" t="s">
+      <c r="C81" s="43" t="s">
+        <v>431</v>
+      </c>
+      <c r="D81" s="47"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3DD87A-5819-466C-8F24-99C8AF7DD494}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="40.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="62" t="s">
+        <v>497</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>503</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>492</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>494</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>493</v>
+      </c>
+      <c r="F1" s="63" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="62" t="s">
+        <v>495</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>522</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>496</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>499</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>498</v>
+      </c>
+      <c r="F2" s="66" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="62" t="s">
+        <v>500</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>504</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>501</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>502</v>
+      </c>
+      <c r="E3" s="63" t="s">
+        <v>505</v>
+      </c>
+      <c r="F3" s="63" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="62" t="s">
+        <v>506</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>507</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>508</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>509</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>510</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="62" t="s">
+        <v>511</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>521</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>521</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>521</v>
+      </c>
+      <c r="E5" s="64" t="s">
+        <v>521</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="62" t="s">
+        <v>512</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>521</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>521</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>521</v>
+      </c>
+      <c r="E6" s="67" t="s">
+        <v>521</v>
+      </c>
+      <c r="F6" s="67" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="62" t="s">
+        <v>513</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>521</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>521</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>521</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>521</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="62" t="s">
+        <v>514</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>521</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>521</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>521</v>
+      </c>
+      <c r="E8" s="67" t="s">
+        <v>521</v>
+      </c>
+      <c r="F8" s="67" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="225.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="62" t="s">
+        <v>515</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>516</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>516</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>516</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>516</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="62" t="s">
+        <v>517</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>518</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>518</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>518</v>
+      </c>
+      <c r="E10" s="68" t="s">
+        <v>518</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="285.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="62" t="s">
+        <v>519</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>520</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>520</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>520</v>
+      </c>
+      <c r="E11" s="65" t="s">
+        <v>520</v>
+      </c>
+      <c r="F11" s="65" t="s">
+        <v>520</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B876571-A643-4A6E-AEEF-90DA4EBD900F}">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>363</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>346</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>347</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>346</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>355</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>361</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>354</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>360</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>353</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>352</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
+        <v>418</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>341</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
         <v>417</v>
       </c>
-      <c r="D30" s="51"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
-      <c r="B31" s="43">
-        <v>10</v>
-      </c>
-      <c r="C31" s="45" t="s">
-        <v>418</v>
-      </c>
-      <c r="D31" s="51"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="42">
-        <v>4</v>
-      </c>
-      <c r="B32" s="44">
-        <v>1</v>
-      </c>
-      <c r="C32" s="47" t="s">
-        <v>419</v>
-      </c>
-      <c r="D32" s="51"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
-      <c r="B33" s="44">
-        <v>2</v>
-      </c>
-      <c r="C33" s="47" t="s">
-        <v>420</v>
-      </c>
-      <c r="D33" s="51"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
-      <c r="B34" s="44">
-        <v>3</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>421</v>
-      </c>
-      <c r="D34" s="51"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
-      <c r="B35" s="44">
-        <v>4</v>
-      </c>
-      <c r="C35" s="48" t="s">
-        <v>409</v>
-      </c>
-      <c r="D35" s="56" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
-      <c r="B36" s="44">
-        <v>5</v>
-      </c>
-      <c r="C36" s="48" t="s">
-        <v>409</v>
-      </c>
-      <c r="D36" s="56" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
-      <c r="B37" s="44">
-        <v>6</v>
-      </c>
-      <c r="C37" s="48" t="s">
-        <v>409</v>
-      </c>
-      <c r="D37" s="56" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
-      <c r="B38" s="44">
-        <v>7</v>
-      </c>
-      <c r="C38" s="48" t="s">
-        <v>409</v>
-      </c>
-      <c r="D38" s="56" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
-      <c r="B39" s="44">
-        <v>8</v>
-      </c>
-      <c r="C39" s="48" t="s">
-        <v>409</v>
-      </c>
-      <c r="D39" s="56" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
-      <c r="B40" s="44">
-        <v>9</v>
-      </c>
-      <c r="C40" s="48" t="s">
-        <v>409</v>
-      </c>
-      <c r="D40" s="56" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
-      <c r="B41" s="44">
-        <v>10</v>
-      </c>
-      <c r="C41" s="48" t="s">
-        <v>409</v>
-      </c>
-      <c r="D41" s="56" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="42">
-        <v>5</v>
-      </c>
-      <c r="B42" s="43">
-        <v>1</v>
-      </c>
-      <c r="C42" s="45" t="s">
-        <v>422</v>
-      </c>
-      <c r="D42" s="51"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
-      <c r="B43" s="43">
-        <v>2</v>
-      </c>
-      <c r="C43" s="45" t="s">
-        <v>426</v>
-      </c>
-      <c r="D43" s="51"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
-      <c r="B44" s="43">
-        <v>3</v>
-      </c>
-      <c r="C44" s="45" t="s">
-        <v>427</v>
-      </c>
-      <c r="D44" s="51"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
-      <c r="B45" s="43">
-        <v>4</v>
-      </c>
-      <c r="C45" s="45" t="s">
-        <v>423</v>
-      </c>
-      <c r="D45" s="51"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
-      <c r="B46" s="43">
-        <v>5</v>
-      </c>
-      <c r="C46" s="45" t="s">
-        <v>428</v>
-      </c>
-      <c r="D46" s="51"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
-      <c r="B47" s="43">
-        <v>6</v>
-      </c>
-      <c r="C47" s="45" t="s">
-        <v>429</v>
-      </c>
-      <c r="D47" s="51"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
-      <c r="B48" s="43">
-        <v>7</v>
-      </c>
-      <c r="C48" s="45" t="s">
-        <v>424</v>
-      </c>
-      <c r="D48" s="51"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
-      <c r="B49" s="43">
-        <v>8</v>
-      </c>
-      <c r="C49" s="45" t="s">
-        <v>430</v>
-      </c>
-      <c r="D49" s="51"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
-      <c r="B50" s="43">
-        <v>9</v>
-      </c>
-      <c r="C50" s="45" t="s">
-        <v>431</v>
-      </c>
-      <c r="D50" s="51"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
-      <c r="B51" s="43">
-        <v>10</v>
-      </c>
-      <c r="C51" s="46" t="s">
-        <v>409</v>
-      </c>
-      <c r="D51" s="56" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="42">
-        <v>6</v>
-      </c>
-      <c r="B52" s="44">
-        <v>1</v>
-      </c>
-      <c r="C52" s="47" t="s">
-        <v>425</v>
-      </c>
-      <c r="D52" s="51"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
-      <c r="B53" s="44">
-        <v>2</v>
-      </c>
-      <c r="C53" s="47" t="s">
-        <v>432</v>
-      </c>
-      <c r="D53" s="51"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
-      <c r="B54" s="44">
-        <v>3</v>
-      </c>
-      <c r="C54" s="47" t="s">
-        <v>433</v>
-      </c>
-      <c r="D54" s="51"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
-      <c r="B55" s="44">
-        <v>4</v>
-      </c>
-      <c r="C55" s="48" t="s">
-        <v>409</v>
-      </c>
-      <c r="D55" s="56" t="s">
+      <c r="B12" s="49" t="s">
+        <v>351</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="48"/>
+      <c r="B13" s="49" t="s">
+        <v>350</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="48"/>
+      <c r="B14" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="C14" s="59" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
-      <c r="B56" s="44">
-        <v>5</v>
-      </c>
-      <c r="C56" s="48" t="s">
-        <v>409</v>
-      </c>
-      <c r="D56" s="56" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
-      <c r="B57" s="44">
-        <v>6</v>
-      </c>
-      <c r="C57" s="48" t="s">
-        <v>409</v>
-      </c>
-      <c r="D57" s="56" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="42"/>
-      <c r="B58" s="44">
-        <v>7</v>
-      </c>
-      <c r="C58" s="48" t="s">
-        <v>409</v>
-      </c>
-      <c r="D58" s="56" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="42"/>
-      <c r="B59" s="44">
-        <v>8</v>
-      </c>
-      <c r="C59" s="48" t="s">
-        <v>409</v>
-      </c>
-      <c r="D59" s="56" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="42"/>
-      <c r="B60" s="44">
-        <v>9</v>
-      </c>
-      <c r="C60" s="48" t="s">
-        <v>409</v>
-      </c>
-      <c r="D60" s="56" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
-      <c r="B61" s="44">
-        <v>10</v>
-      </c>
-      <c r="C61" s="48" t="s">
-        <v>409</v>
-      </c>
-      <c r="D61" s="56" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="42">
-        <v>7</v>
-      </c>
-      <c r="B62" s="43">
-        <v>1</v>
-      </c>
-      <c r="C62" s="46" t="s">
-        <v>409</v>
-      </c>
-      <c r="D62" s="51"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="42"/>
-      <c r="B63" s="43">
-        <v>2</v>
-      </c>
-      <c r="C63" s="46" t="s">
-        <v>409</v>
-      </c>
-      <c r="D63" s="51"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="42"/>
-      <c r="B64" s="43">
-        <v>3</v>
-      </c>
-      <c r="C64" s="46" t="s">
-        <v>409</v>
-      </c>
-      <c r="D64" s="51"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="42"/>
-      <c r="B65" s="43">
-        <v>4</v>
-      </c>
-      <c r="C65" s="46" t="s">
-        <v>409</v>
-      </c>
-      <c r="D65" s="51"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
-      <c r="B66" s="43">
-        <v>5</v>
-      </c>
-      <c r="C66" s="46" t="s">
-        <v>409</v>
-      </c>
-      <c r="D66" s="51"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
-      <c r="B67" s="43">
-        <v>6</v>
-      </c>
-      <c r="C67" s="46" t="s">
-        <v>409</v>
-      </c>
-      <c r="D67" s="51"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="42"/>
-      <c r="B68" s="43">
-        <v>7</v>
-      </c>
-      <c r="C68" s="46" t="s">
-        <v>409</v>
-      </c>
-      <c r="D68" s="51"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="42"/>
-      <c r="B69" s="43">
-        <v>8</v>
-      </c>
-      <c r="C69" s="46" t="s">
-        <v>409</v>
-      </c>
-      <c r="D69" s="51"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="42"/>
-      <c r="B70" s="43">
-        <v>9</v>
-      </c>
-      <c r="C70" s="46" t="s">
-        <v>409</v>
-      </c>
-      <c r="D70" s="51"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="42"/>
-      <c r="B71" s="43">
-        <v>10</v>
-      </c>
-      <c r="C71" s="46" t="s">
-        <v>409</v>
-      </c>
-      <c r="D71" s="51"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="42">
-        <v>8</v>
-      </c>
-      <c r="B72" s="44">
-        <v>1</v>
-      </c>
-      <c r="C72" s="47" t="s">
-        <v>452</v>
-      </c>
-      <c r="D72" s="51"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="42"/>
-      <c r="B73" s="44">
-        <v>2</v>
-      </c>
-      <c r="C73" s="47" t="s">
-        <v>453</v>
-      </c>
-      <c r="D73" s="51"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="42"/>
-      <c r="B74" s="44">
-        <v>3</v>
-      </c>
-      <c r="C74" s="48" t="s">
-        <v>409</v>
-      </c>
-      <c r="D74" s="56" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="42"/>
-      <c r="B75" s="44">
-        <v>4</v>
-      </c>
-      <c r="C75" s="48" t="s">
-        <v>409</v>
-      </c>
-      <c r="D75" s="56" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="42"/>
-      <c r="B76" s="44">
-        <v>5</v>
-      </c>
-      <c r="C76" s="48" t="s">
-        <v>409</v>
-      </c>
-      <c r="D76" s="56" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="42"/>
-      <c r="B77" s="44">
-        <v>6</v>
-      </c>
-      <c r="C77" s="48" t="s">
-        <v>409</v>
-      </c>
-      <c r="D77" s="56" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="42"/>
-      <c r="B78" s="44">
-        <v>7</v>
-      </c>
-      <c r="C78" s="48" t="s">
-        <v>409</v>
-      </c>
-      <c r="D78" s="56" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="42"/>
-      <c r="B79" s="44">
-        <v>8</v>
-      </c>
-      <c r="C79" s="48" t="s">
-        <v>409</v>
-      </c>
-      <c r="D79" s="56" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="42"/>
-      <c r="B80" s="44">
-        <v>9</v>
-      </c>
-      <c r="C80" s="47" t="s">
-        <v>451</v>
-      </c>
-      <c r="D80" s="51"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="42"/>
-      <c r="B81" s="44">
-        <v>10</v>
-      </c>
-      <c r="C81" s="47" t="s">
-        <v>450</v>
-      </c>
-      <c r="D81" s="51"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="15"/>
-      <c r="B82" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FG_PrjDoc.xlsx
+++ b/FG_PrjDoc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\FG9326M8GTEI4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0B2477-09F3-499D-85A4-B2EBBF28840D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90EDA2F-0153-4A8D-8C50-4CDF4ED44850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="847" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="847" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Func" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="584">
   <si>
     <t>Central Body Module</t>
   </si>
@@ -1712,9 +1712,6 @@
     <t>EncCal</t>
   </si>
   <si>
-    <t>VehState</t>
-  </si>
-  <si>
     <t>EnergyManagement</t>
   </si>
   <si>
@@ -1848,9 +1845,6 @@
   </si>
   <si>
     <t>Additional state for checks.</t>
-  </si>
-  <si>
-    <t>pending</t>
   </si>
 </sst>
 </file>
@@ -2160,7 +2154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2330,7 +2324,6 @@
     <xf numFmtId="0" fontId="1" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -7658,8 +7651,8 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7671,10 +7664,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="73" t="s">
+        <v>558</v>
+      </c>
+      <c r="B1" s="73" t="s">
         <v>559</v>
-      </c>
-      <c r="B1" s="73" t="s">
-        <v>560</v>
       </c>
       <c r="D1" s="74" t="s">
         <v>233</v>
@@ -7685,10 +7678,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D2" t="s">
         <v>455</v>
@@ -7699,10 +7692,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D3" s="71" t="s">
         <v>456</v>
@@ -7713,10 +7706,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="72" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B4" s="75" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D4" s="71" t="s">
         <v>16</v>
@@ -7727,10 +7720,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="72" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D5" s="71" t="s">
         <v>457</v>
@@ -7741,30 +7734,30 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="72" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B6" s="76" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D6" t="s">
         <v>458</v>
       </c>
       <c r="E6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="72" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D7" s="71" t="s">
         <v>459</v>
       </c>
       <c r="E7" s="71" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -7772,35 +7765,35 @@
         <v>538</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D8" t="s">
         <v>460</v>
       </c>
       <c r="E8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="72" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D9" t="s">
         <v>461</v>
       </c>
       <c r="E9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="72" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D10" s="71" t="s">
         <v>462</v>
@@ -7811,10 +7804,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="72" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B11" s="75" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D11" s="71" t="s">
         <v>463</v>
@@ -7825,10 +7818,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="72" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D12" s="71" t="s">
         <v>464</v>
@@ -7839,10 +7832,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="72" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B13" s="76" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D13" s="71" t="s">
         <v>465</v>
@@ -7853,24 +7846,24 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="72" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B14" s="76" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D14" s="71" t="s">
         <v>467</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="72" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B15" s="75" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D15" s="71" t="s">
         <v>468</v>
@@ -7881,10 +7874,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="72" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B16" s="75" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D16" t="s">
         <v>469</v>
@@ -7895,184 +7888,184 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="72" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B17" s="75" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D17" s="71" t="s">
         <v>470</v>
       </c>
       <c r="E17" s="71" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="72" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B18" s="75" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D18" s="71" t="s">
         <v>471</v>
       </c>
       <c r="E18" s="71" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="72" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B19" s="75" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D19" t="s">
         <v>472</v>
       </c>
       <c r="E19" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="72" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B20" s="75" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D20" t="s">
         <v>473</v>
       </c>
       <c r="E20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="72" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B21" s="75" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D21" s="71" t="s">
         <v>474</v>
       </c>
       <c r="E21" s="71" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="72" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B22" s="75" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D22" t="s">
         <v>475</v>
       </c>
       <c r="E22" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="72" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B23" s="75" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D23" t="s">
         <v>476</v>
       </c>
       <c r="E23" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="72" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B24" s="75" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D24" t="s">
         <v>477</v>
       </c>
       <c r="E24" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="72" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B25" s="75" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D25" t="s">
         <v>478</v>
       </c>
       <c r="E25" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="72" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B26" s="75" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D26" s="71" t="s">
         <v>480</v>
       </c>
       <c r="E26" s="71" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="72" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B27" s="75" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D27" t="s">
         <v>479</v>
       </c>
       <c r="E27" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="72" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B28" s="76" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D28" s="71" t="s">
         <v>481</v>
       </c>
       <c r="E28" s="71" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="72" t="s">
-        <v>579</v>
-      </c>
-      <c r="B29" s="77" t="s">
-        <v>585</v>
+        <v>578</v>
+      </c>
+      <c r="B29" s="75" t="s">
+        <v>580</v>
       </c>
       <c r="D29" s="71" t="s">
         <v>482</v>
       </c>
       <c r="E29" s="71" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -8080,7 +8073,7 @@
         <v>537</v>
       </c>
       <c r="B30" s="76" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D30" s="71" t="s">
         <v>483</v>
@@ -8090,11 +8083,11 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D31" s="78" t="s">
+      <c r="D31" s="77" t="s">
         <v>484</v>
       </c>
-      <c r="E31" s="78" t="s">
-        <v>565</v>
+      <c r="E31" s="77" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -8102,7 +8095,7 @@
         <v>485</v>
       </c>
       <c r="E32" s="71" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.25">
@@ -8110,7 +8103,7 @@
         <v>486</v>
       </c>
       <c r="E33" s="71" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.25">
@@ -8118,7 +8111,7 @@
         <v>487</v>
       </c>
       <c r="E34" s="71" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.25">
@@ -8126,7 +8119,7 @@
         <v>488</v>
       </c>
       <c r="E35" s="71" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.25">
@@ -8134,7 +8127,7 @@
         <v>489</v>
       </c>
       <c r="E36" s="71" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.25">
@@ -8142,7 +8135,7 @@
         <v>490</v>
       </c>
       <c r="E37" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.25">
@@ -8150,7 +8143,7 @@
         <v>491</v>
       </c>
       <c r="E38" s="71" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -8293,7 +8286,7 @@
         <v>528</v>
       </c>
       <c r="I5" s="60" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -8362,7 +8355,7 @@
         <v>530</v>
       </c>
       <c r="I8" s="60" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -8382,10 +8375,10 @@
         <v>286</v>
       </c>
       <c r="H9" s="60" t="s">
+        <v>581</v>
+      </c>
+      <c r="I9" s="60" t="s">
         <v>582</v>
-      </c>
-      <c r="I9" s="60" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -10124,7 +10117,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C4" s="6">
         <v>3</v>
@@ -19785,7 +19778,7 @@
         <v>498</v>
       </c>
       <c r="F2" s="66" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -19805,7 +19798,7 @@
         <v>505</v>
       </c>
       <c r="F3" s="63" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -19825,7 +19818,7 @@
         <v>510</v>
       </c>
       <c r="F4" s="66" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60.75" x14ac:dyDescent="0.3">
@@ -19948,7 +19941,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="285.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A11" s="62" t="s">
         <v>519</v>
       </c>

--- a/FG_PrjDoc.xlsx
+++ b/FG_PrjDoc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\FG9326M8GTEI4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8AF4F0-5A59-4B9C-8EEB-B64D18AD0A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE6C377-A2F9-4F2D-8B23-F6FC2BF6642C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="847" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="847" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Func" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="252">
   <si>
     <t>Central Body Module</t>
   </si>
@@ -627,15 +627,6 @@
     <t>CLIMA FAN SUPPLY</t>
   </si>
   <si>
-    <t>5 series</t>
-  </si>
-  <si>
-    <t>3 series</t>
-  </si>
-  <si>
-    <t>4 series</t>
-  </si>
-  <si>
     <t>VIN</t>
   </si>
   <si>
@@ -660,9 +651,6 @@
     <t>G26</t>
   </si>
   <si>
-    <t>8 series</t>
-  </si>
-  <si>
     <t>F93</t>
   </si>
   <si>
@@ -672,18 +660,6 @@
     <t>Upholstery / paint</t>
   </si>
   <si>
-    <t>black / M8GTE</t>
-  </si>
-  <si>
-    <t>black / black sapphire</t>
-  </si>
-  <si>
-    <t>white / beige</t>
-  </si>
-  <si>
-    <t>grey / black sapphire</t>
-  </si>
-  <si>
     <t>Software version</t>
   </si>
   <si>
@@ -702,18 +678,9 @@
     <t>Build date</t>
   </si>
   <si>
-    <t>01.05.2025</t>
-  </si>
-  <si>
     <t>Module names</t>
   </si>
   <si>
-    <t>1.1.1
-1.1.1
-1.1.1
-1.1.1</t>
-  </si>
-  <si>
     <t>WBAEG2311MC291143</t>
   </si>
   <si>
@@ -759,9 +726,6 @@
     <t>E39</t>
   </si>
   <si>
-    <t>black / metallic grey</t>
-  </si>
-  <si>
     <t>WBADT42040CX97550</t>
   </si>
   <si>
@@ -777,31 +741,6 @@
     <t>Diagnostic Mode Activated</t>
   </si>
   <si>
-    <t>Central Body Module 1 - CBM1
-Digital Main Unit 1 - DMU1
-Drive Electronic Controller 1 - DEC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Bluetooth control
-Remote ventilation
-Automatic climate control
-Windshield wiper normal speed
-Digital Cluster
-Reverse camera
-Collision assist
-Central locking
-Automatic lights
-Automatic wipers
-Remote start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1
-1.1.1
-1.1.1
-</t>
-  </si>
-  <si>
     <t>Digital Cluster Error</t>
   </si>
   <si>
@@ -827,6 +766,36 @@
   </si>
   <si>
     <t>MCU Safety Measures</t>
+  </si>
+  <si>
+    <t>P010525</t>
+  </si>
+  <si>
+    <t>CBM1
+DMU1
+DEC1</t>
+  </si>
+  <si>
+    <t>111
+111
+111</t>
+  </si>
+  <si>
+    <t>BTC
+RVENT
+CLIMA
+DIGCLS
+REVCAM
+COLLASSIST
+CENLOC
+AL
+AW</t>
+  </si>
+  <si>
+    <t>A83475</t>
+  </si>
+  <si>
+    <t>416A62</t>
   </si>
 </sst>
 </file>
@@ -996,7 +965,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1033,7 +1002,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1045,7 +1013,6 @@
     <xf numFmtId="14" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1055,6 +1022,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1341,7 +1318,7 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -1382,7 +1359,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1393,7 +1370,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1415,7 +1392,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1426,7 +1403,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1478,10 +1455,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1490,7 +1467,7 @@
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1568,10 +1545,10 @@
         <v>28</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1588,10 +1565,10 @@
         <v>90</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1608,10 +1585,10 @@
         <v>91</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1628,10 +1605,10 @@
         <v>92</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1648,10 +1625,10 @@
         <v>93</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1668,10 +1645,10 @@
         <v>94</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1688,10 +1665,10 @@
         <v>95</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1708,10 +1685,10 @@
         <v>96</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1925,7 +1902,7 @@
         <v>41</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1945,7 +1922,7 @@
         <v>98</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1965,7 +1942,7 @@
         <v>99</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2129,19 +2106,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="23" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2152,13 +2129,13 @@
       <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>163</v>
       </c>
       <c r="E2" s="7">
         <v>0</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="26" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2167,13 +2144,13 @@
       <c r="B3" s="7">
         <v>2</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>166</v>
       </c>
       <c r="E3" s="7">
         <v>1</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="25" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2182,13 +2159,13 @@
       <c r="B4" s="7">
         <v>3</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="24" t="s">
         <v>167</v>
       </c>
       <c r="E4" s="7">
         <v>2</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="25" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2197,13 +2174,13 @@
       <c r="B5" s="7">
         <v>4</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>164</v>
       </c>
       <c r="E5" s="7">
         <v>3</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="26" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2212,13 +2189,13 @@
       <c r="B6" s="7">
         <v>5</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>168</v>
       </c>
       <c r="E6" s="7">
         <v>4</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="26" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2227,13 +2204,13 @@
       <c r="B7" s="7">
         <v>6</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="24" t="s">
         <v>169</v>
       </c>
       <c r="E7" s="7">
         <v>5</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="25" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2242,13 +2219,13 @@
       <c r="B8" s="7">
         <v>7</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="25" t="s">
         <v>172</v>
       </c>
       <c r="E8" s="7">
         <v>6</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="25" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2257,13 +2234,13 @@
       <c r="B9" s="7">
         <v>8</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="24" t="s">
         <v>165</v>
       </c>
       <c r="E9" s="7">
         <v>7</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="26" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2272,13 +2249,13 @@
       <c r="B10" s="7">
         <v>9</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="24" t="s">
         <v>170</v>
       </c>
       <c r="E10" s="7">
         <v>8</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="26" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2287,13 +2264,13 @@
       <c r="B11" s="7">
         <v>10</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="24" t="s">
         <v>171</v>
       </c>
       <c r="E11" s="7">
         <v>9</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="26" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2304,13 +2281,13 @@
       <c r="B12" s="7">
         <v>1</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="24" t="s">
         <v>173</v>
       </c>
       <c r="E12" s="7">
         <v>10</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="25" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2319,13 +2296,13 @@
       <c r="B13" s="7">
         <v>2</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="24" t="s">
         <v>174</v>
       </c>
       <c r="E13" s="7">
         <v>11</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="25" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2334,13 +2311,13 @@
       <c r="B14" s="7">
         <v>3</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="24" t="s">
         <v>175</v>
       </c>
       <c r="E14" s="7">
         <v>12</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="25" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2349,13 +2326,13 @@
       <c r="B15" s="7">
         <v>4</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="24" t="s">
         <v>176</v>
       </c>
       <c r="E15" s="7">
         <v>13</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="25" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2364,13 +2341,13 @@
       <c r="B16" s="7">
         <v>5</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="24" t="s">
         <v>177</v>
       </c>
       <c r="E16" s="7">
         <v>14</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="25" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2379,13 +2356,13 @@
       <c r="B17" s="7">
         <v>6</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="24" t="s">
         <v>178</v>
       </c>
       <c r="E17" s="7">
         <v>15</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="25" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2394,7 +2371,7 @@
       <c r="B18" s="7">
         <v>7</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2403,7 +2380,7 @@
       <c r="B19" s="7">
         <v>8</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2412,7 +2389,7 @@
       <c r="B20" s="7">
         <v>9</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2421,7 +2398,7 @@
       <c r="B21" s="7">
         <v>10</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2432,7 +2409,7 @@
       <c r="B22" s="7">
         <v>1</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="24" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2441,7 +2418,7 @@
       <c r="B23" s="7">
         <v>2</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="24" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2450,7 +2427,7 @@
       <c r="B24" s="7">
         <v>3</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="24" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2459,7 +2436,7 @@
       <c r="B25" s="7">
         <v>4</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="24" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2468,7 +2445,7 @@
       <c r="B26" s="7">
         <v>5</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="24" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2477,7 +2454,7 @@
       <c r="B27" s="7">
         <v>6</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="24" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2486,7 +2463,7 @@
       <c r="B28" s="7">
         <v>7</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2495,7 +2472,7 @@
       <c r="B29" s="7">
         <v>8</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="24" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2504,7 +2481,7 @@
       <c r="B30" s="7">
         <v>9</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="24" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2513,7 +2490,7 @@
       <c r="B31" s="7">
         <v>10</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="24" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2524,7 +2501,7 @@
       <c r="B32" s="7">
         <v>1</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="24" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2533,7 +2510,7 @@
       <c r="B33" s="7">
         <v>2</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="24" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2542,7 +2519,7 @@
       <c r="B34" s="7">
         <v>3</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="24" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2551,7 +2528,7 @@
       <c r="B35" s="7">
         <v>4</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2560,7 +2537,7 @@
       <c r="B36" s="7">
         <v>5</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2569,7 +2546,7 @@
       <c r="B37" s="7">
         <v>6</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2578,7 +2555,7 @@
       <c r="B38" s="7">
         <v>7</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2587,7 +2564,7 @@
       <c r="B39" s="7">
         <v>8</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2596,7 +2573,7 @@
       <c r="B40" s="7">
         <v>9</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2605,7 +2582,7 @@
       <c r="B41" s="7">
         <v>10</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2616,7 +2593,7 @@
       <c r="B42" s="7">
         <v>1</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="24" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2625,7 +2602,7 @@
       <c r="B43" s="7">
         <v>2</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="24" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2634,7 +2611,7 @@
       <c r="B44" s="7">
         <v>3</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="24" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2643,7 +2620,7 @@
       <c r="B45" s="7">
         <v>4</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="24" t="s">
         <v>186</v>
       </c>
     </row>
@@ -2652,7 +2629,7 @@
       <c r="B46" s="7">
         <v>5</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="24" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2661,7 +2638,7 @@
       <c r="B47" s="7">
         <v>6</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="24" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2670,7 +2647,7 @@
       <c r="B48" s="7">
         <v>7</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="24" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2679,7 +2656,7 @@
       <c r="B49" s="7">
         <v>8</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="24" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2688,7 +2665,7 @@
       <c r="B50" s="7">
         <v>9</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="24" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2697,7 +2674,7 @@
       <c r="B51" s="7">
         <v>10</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2708,7 +2685,7 @@
       <c r="B52" s="7">
         <v>1</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="24" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2717,7 +2694,7 @@
       <c r="B53" s="7">
         <v>2</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="24" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2726,7 +2703,7 @@
       <c r="B54" s="7">
         <v>3</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="C54" s="24" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2735,7 +2712,7 @@
       <c r="B55" s="7">
         <v>4</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2744,7 +2721,7 @@
       <c r="B56" s="7">
         <v>5</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C56" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2753,7 +2730,7 @@
       <c r="B57" s="7">
         <v>6</v>
       </c>
-      <c r="C57" s="27" t="s">
+      <c r="C57" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2762,7 +2739,7 @@
       <c r="B58" s="7">
         <v>7</v>
       </c>
-      <c r="C58" s="27" t="s">
+      <c r="C58" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2771,7 +2748,7 @@
       <c r="B59" s="7">
         <v>8</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2780,7 +2757,7 @@
       <c r="B60" s="7">
         <v>9</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2789,7 +2766,7 @@
       <c r="B61" s="7">
         <v>10</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2800,7 +2777,7 @@
       <c r="B62" s="7">
         <v>1</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2809,7 +2786,7 @@
       <c r="B63" s="7">
         <v>2</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C63" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2818,7 +2795,7 @@
       <c r="B64" s="7">
         <v>3</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2827,7 +2804,7 @@
       <c r="B65" s="7">
         <v>4</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2836,7 +2813,7 @@
       <c r="B66" s="7">
         <v>5</v>
       </c>
-      <c r="C66" s="27" t="s">
+      <c r="C66" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2845,7 +2822,7 @@
       <c r="B67" s="7">
         <v>6</v>
       </c>
-      <c r="C67" s="27" t="s">
+      <c r="C67" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2854,7 +2831,7 @@
       <c r="B68" s="7">
         <v>7</v>
       </c>
-      <c r="C68" s="27" t="s">
+      <c r="C68" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2863,7 +2840,7 @@
       <c r="B69" s="7">
         <v>8</v>
       </c>
-      <c r="C69" s="27" t="s">
+      <c r="C69" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2872,7 +2849,7 @@
       <c r="B70" s="7">
         <v>9</v>
       </c>
-      <c r="C70" s="27" t="s">
+      <c r="C70" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2881,7 +2858,7 @@
       <c r="B71" s="7">
         <v>10</v>
       </c>
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2892,7 +2869,7 @@
       <c r="B72" s="7">
         <v>1</v>
       </c>
-      <c r="C72" s="26" t="s">
+      <c r="C72" s="24" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2901,7 +2878,7 @@
       <c r="B73" s="7">
         <v>2</v>
       </c>
-      <c r="C73" s="26" t="s">
+      <c r="C73" s="24" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2910,7 +2887,7 @@
       <c r="B74" s="7">
         <v>3</v>
       </c>
-      <c r="C74" s="27" t="s">
+      <c r="C74" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2919,7 +2896,7 @@
       <c r="B75" s="7">
         <v>4</v>
       </c>
-      <c r="C75" s="27" t="s">
+      <c r="C75" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2928,7 +2905,7 @@
       <c r="B76" s="7">
         <v>5</v>
       </c>
-      <c r="C76" s="27" t="s">
+      <c r="C76" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2937,7 +2914,7 @@
       <c r="B77" s="7">
         <v>6</v>
       </c>
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2946,7 +2923,7 @@
       <c r="B78" s="7">
         <v>7</v>
       </c>
-      <c r="C78" s="27" t="s">
+      <c r="C78" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2955,7 +2932,7 @@
       <c r="B79" s="7">
         <v>8</v>
       </c>
-      <c r="C79" s="27" t="s">
+      <c r="C79" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2964,7 +2941,7 @@
       <c r="B80" s="7">
         <v>9</v>
       </c>
-      <c r="C80" s="27" t="s">
+      <c r="C80" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2973,7 +2950,7 @@
       <c r="B81" s="7">
         <v>10</v>
       </c>
-      <c r="C81" s="27" t="s">
+      <c r="C81" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2991,10 +2968,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3005,223 +2982,223 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="28">
+        <v>8</v>
+      </c>
+      <c r="C1" s="28">
+        <v>5</v>
+      </c>
+      <c r="D1" s="28">
+        <v>4</v>
+      </c>
+      <c r="E1" s="28">
+        <v>3</v>
+      </c>
+      <c r="F1" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B3" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="30">
+        <v>475999</v>
+      </c>
+      <c r="C4" s="30">
+        <v>416475</v>
+      </c>
+      <c r="D4" s="30">
+        <v>300850</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="B3" s="19" t="s">
+      <c r="B5" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="E3" s="19" t="s">
+      <c r="B6" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="B7" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B8" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="135.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="B9" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="B10" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="60.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="60.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="60.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="60.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="180.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="45.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>248</v>
+      <c r="B11" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3532,13 +3509,21 @@
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="1">
+      <c r="D30" s="1"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="1">
         <v>5</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F31" s="10" t="s">
         <v>65</v>
       </c>
     </row>
